--- a/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
+++ b/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11240BFF-E054-48DD-8C96-31B4FF179F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E17310-7525-473D-BEDB-B723C11EC8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="220">
   <si>
     <t>setting_name</t>
   </si>
@@ -302,12 +302,6 @@
     <t xml:space="preserve">if </t>
   </si>
   <si>
-    <t>Quais serviços?</t>
-  </si>
-  <si>
-    <t>Which services</t>
-  </si>
-  <si>
     <t>Which Materials</t>
   </si>
   <si>
@@ -320,21 +314,12 @@
     <t xml:space="preserve">Diagnósticos: </t>
   </si>
   <si>
-    <t>Quais Diagnósticos?</t>
-  </si>
-  <si>
-    <t>Medicamentos (incl vitaminas)</t>
-  </si>
-  <si>
     <t>Quais medicamentos?</t>
   </si>
   <si>
     <t>Outros despesas?</t>
   </si>
   <si>
-    <t>Quais</t>
-  </si>
-  <si>
     <t>Transport</t>
   </si>
   <si>
@@ -368,9 +353,6 @@
     <t>Recusou-se a responder</t>
   </si>
   <si>
-    <t xml:space="preserve">text </t>
-  </si>
-  <si>
     <t>REGID</t>
   </si>
   <si>
@@ -380,21 +362,6 @@
     <t>VISITID</t>
   </si>
   <si>
-    <t>transporte:___________)</t>
-  </si>
-  <si>
-    <t>Primeiras vacinas que o seu filho recebeu</t>
-  </si>
-  <si>
-    <t>Onde é que o seu filho foi vacinado? (primeiras vacinas)?</t>
-  </si>
-  <si>
-    <t>Se foi vacinado fora da tabanca: quanto pagou para chegar ao ponto de atendimento e</t>
-  </si>
-  <si>
-    <t>regressar a casa (transporte ida e volta)? ______XOF (meio de transporte:___________)</t>
-  </si>
-  <si>
     <t>OOP_ANC</t>
   </si>
   <si>
@@ -419,45 +386,21 @@
     <t xml:space="preserve">At which health centre/clinic/hospital did the woman seek the last ANC? </t>
   </si>
   <si>
-    <t>&lt;b&gt;Is the place of Center {{data.LOCPARCODE}} outside the village? &lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;O centro {{data.LOCPARCODE}} localisou-se fora da tabanca? &lt;/b&gt;</t>
-  </si>
-  <si>
     <t>LOCPAR_FORA</t>
   </si>
   <si>
-    <t xml:space="preserve">Se procurou o último CPN fora da tabanca: </t>
-  </si>
-  <si>
-    <t>Quanto pagou para chegar ao ponto de atendimento e regressar a casa (transporte ida e volta)? ______XOF (meio de</t>
-  </si>
-  <si>
-    <t>Quanto pagou para chegar ao ponto de atendimento e regressar a casa (transporte ida e volta)?</t>
-  </si>
-  <si>
     <t>OOP_A_TRAQ</t>
   </si>
   <si>
     <t>OOP_A_TRAM</t>
   </si>
   <si>
-    <t xml:space="preserve">data("LOCPAR_FORA") == "1" </t>
-  </si>
-  <si>
     <t>Did you seek ANC</t>
   </si>
   <si>
     <t>OOP_A_SERQ</t>
   </si>
   <si>
-    <t>data("OOP_A_SERQ") &gt;0</t>
-  </si>
-  <si>
-    <t>OOP_A_SERT</t>
-  </si>
-  <si>
     <t>OOP_A_MATQ</t>
   </si>
   <si>
@@ -516,6 +459,252 @@
   </si>
   <si>
     <t>Você pagou a sua última consulta de cuidados pré-natais e/ou o seu cartão de gravidez?</t>
+  </si>
+  <si>
+    <t>data("OOP_ANC") != null</t>
+  </si>
+  <si>
+    <t>Se não obtou cartao durante est gravidez, indicar 8888, se não sabe o preco indicar 9999</t>
+  </si>
+  <si>
+    <t>data("OOP_ANC") !="1" ||data("OOP_A_C_CPN")!=null</t>
+  </si>
+  <si>
+    <t>data("OOP_ANC") !="1" ||data("OOP_A_C_TT")!=null</t>
+  </si>
+  <si>
+    <t>data('LOCPARCODE')!=null|| data('ANC')!="1"</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Which materials</t>
+  </si>
+  <si>
+    <t>Quais materias?</t>
+  </si>
+  <si>
+    <t>Other materials</t>
+  </si>
+  <si>
+    <t>Outros materiass?</t>
+  </si>
+  <si>
+    <t>Diagnostics</t>
+  </si>
+  <si>
+    <t>Which diagnostics</t>
+  </si>
+  <si>
+    <t>Quais diagnostics?</t>
+  </si>
+  <si>
+    <t>Other diagnostics</t>
+  </si>
+  <si>
+    <t>Outros diagnostics?</t>
+  </si>
+  <si>
+    <t>Medicine:</t>
+  </si>
+  <si>
+    <t>Medicamentos?</t>
+  </si>
+  <si>
+    <t>Medicines</t>
+  </si>
+  <si>
+    <t>Which drugs</t>
+  </si>
+  <si>
+    <t>Other drugs</t>
+  </si>
+  <si>
+    <t>Outros medicametos?</t>
+  </si>
+  <si>
+    <t>Other_expenses</t>
+  </si>
+  <si>
+    <t>Which other expenses</t>
+  </si>
+  <si>
+    <t>Quais outros despesas?</t>
+  </si>
+  <si>
+    <t>Other expenses</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quanto pagou pelo transporte de/para o estabelecimento de saúde (ida e volta)? </t>
+  </si>
+  <si>
+    <t>Meio de transporte</t>
+  </si>
+  <si>
+    <t>Transport_other</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Observacoes</t>
+  </si>
+  <si>
+    <t>OOP_A_MATT_SEL</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MATQ") == 0 || data("OOP_A_MATT_SEL") != null</t>
+  </si>
+  <si>
+    <t>OOP_A_MATT_OU</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MATQ") == 0 || data("OOP_A_MATT_OU") != null</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MATT_OU") =="1"</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MATT") != null || data("OOP_A_MATT_OU") != "1"</t>
+  </si>
+  <si>
+    <t>OOP_A_DIAT_SEL</t>
+  </si>
+  <si>
+    <t>data("OOP_A_DIAQ") == 0 || data("OOP_A_DIAT_SEL") != null</t>
+  </si>
+  <si>
+    <t>OOP_A_DIAT_OU</t>
+  </si>
+  <si>
+    <t>data("OOP_A_DIAQ") == 0 || data("OOP_A_DIAT_OU") != null</t>
+  </si>
+  <si>
+    <t>data("OOP_A_DIAT_OU") =="1"</t>
+  </si>
+  <si>
+    <t>data("OOP_A_DIAT") != null || data("OOP_A_DIAT_OU") != "1"</t>
+  </si>
+  <si>
+    <t>OOP_A_MEDT_SEL</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MEDQ") == 0 || data("OOP_A_MEDT_SEL") != null</t>
+  </si>
+  <si>
+    <t>OOP_A_MEDT_OU</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MEDQ") == 0 || data("OOP_A_MEDT_OU") != null</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MEDT_OU") =="1"</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MEDT") != null || data("OOP_A_MEDT_OU") != "1"</t>
+  </si>
+  <si>
+    <t>OOP_A_OUTT_SEL</t>
+  </si>
+  <si>
+    <t>data("OOP_A_OUTQ") == 0 || data("OOP_A_OUTT_SEL") != null</t>
+  </si>
+  <si>
+    <t>OOP_A_OUTT_OU</t>
+  </si>
+  <si>
+    <t>data("OOP_A_OUTQ") == 0 || data("OOP_A_OUTT_OU") != null</t>
+  </si>
+  <si>
+    <t>data("OOP_A_OUTT_OU") =="1"</t>
+  </si>
+  <si>
+    <t>data("OOP_A_OUTT") != null || data("OOP_A_OUTT_SEL") != "1"</t>
+  </si>
+  <si>
+    <t>OOP_A_TRAM_OU</t>
+  </si>
+  <si>
+    <t>OOP_A_OBS</t>
+  </si>
+  <si>
+    <t>data("OOP_A_SERQ") != null || data("OOP_ANC") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MATQ") != null || data("OOP_ANC") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_A_DIAQ") != null || data("OOP_ANC") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MEDQ") != null || data("OOP_ANC") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_A_OUTQ") != null || data("OOP_ANC") != "1"</t>
+  </si>
+  <si>
+    <t>All means of transport covered above</t>
+  </si>
+  <si>
+    <t>Todos meios de transporte incluindo em cima</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Luvas</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Ecografia</t>
+  </si>
+  <si>
+    <t>Blood test</t>
+  </si>
+  <si>
+    <t>Analyses de sangue</t>
+  </si>
+  <si>
+    <t>Urine test</t>
+  </si>
+  <si>
+    <t>Analyses de urina</t>
+  </si>
+  <si>
+    <t>Antibiotics</t>
+  </si>
+  <si>
+    <t>Ferro</t>
+  </si>
+  <si>
+    <t>Fansidar</t>
+  </si>
+  <si>
+    <t>Antibionticos</t>
+  </si>
+  <si>
+    <t>Vitaminas</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>Cama</t>
+  </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>Limpeza</t>
   </si>
 </sst>
 </file>
@@ -594,7 +783,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +820,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -656,7 +851,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -681,6 +876,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1008,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1024,7 +1223,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1032,10 +1231,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1065,7 +1264,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1079,11 +1278,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:XFD96"/>
+  <dimension ref="A1:XFD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1217,13 +1416,13 @@
         <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="J3"/>
       <c r="L3"/>
@@ -9452,12 +9651,12 @@
       <c r="AG4" s="3"/>
     </row>
     <row r="5" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -9490,781 +9689,1355 @@
       <c r="AF5" s="17"/>
       <c r="AG5" s="17"/>
     </row>
-    <row r="6" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6"/>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-    </row>
-    <row r="7" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-    </row>
-    <row r="8" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+    </row>
+    <row r="7" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+    </row>
+    <row r="8" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8"/>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+    </row>
+    <row r="9" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-    </row>
-    <row r="9" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
     </row>
     <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+    </row>
+    <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="29" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+    </row>
+    <row r="14" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+    </row>
+    <row r="15" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+    </row>
+    <row r="16" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A17" s="21"/>
+      <c r="B17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
-      <c r="B15" t="s">
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="V15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
         <v>35</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G20" t="s">
         <v>81</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H20" t="s">
         <v>81</v>
       </c>
-      <c r="V16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="V17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>135</v>
-      </c>
-      <c r="V18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" t="s">
-        <v>85</v>
-      </c>
-      <c r="V19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="V20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="G21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" t="s">
         <v>83</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B34" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B37" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B40" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B41" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B42" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B45" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H46" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="V21" t="s">
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B48" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L50" s="20"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B51" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B52" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B53" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B54" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" t="s">
+        <v>90</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="L55" s="17"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B56" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="L57" s="17"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="L58" s="17"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B59" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="L61" s="17"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B62" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B63" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B64" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A65" s="15"/>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" t="s">
+        <v>114</v>
+      </c>
+      <c r="G68" t="s">
+        <v>165</v>
+      </c>
+      <c r="H68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="D23" t="s">
+      <c r="G69" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D70" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" t="s">
+        <v>167</v>
+      </c>
+      <c r="F70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
         <v>54</v>
       </c>
-      <c r="F23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B26" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
-      <c r="D27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" t="s">
-        <v>142</v>
-      </c>
-      <c r="G27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B28" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="D29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B30" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B31" s="14"/>
-      <c r="D31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" t="s">
-        <v>145</v>
-      </c>
-      <c r="G31" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B32" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" t="s">
-        <v>152</v>
-      </c>
-      <c r="G33" t="s">
-        <v>150</v>
-      </c>
-      <c r="H33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" t="s">
-        <v>153</v>
-      </c>
-      <c r="G34" t="s">
-        <v>151</v>
-      </c>
-      <c r="H34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" t="s">
-        <v>94</v>
-      </c>
-      <c r="H35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B36" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B37" s="14"/>
-      <c r="D37" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" t="s">
-        <v>148</v>
-      </c>
-      <c r="G37" t="s">
-        <v>95</v>
-      </c>
-      <c r="H37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B38" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A39" s="14"/>
-      <c r="B39" t="s">
+      <c r="F73" t="s">
+        <v>195</v>
+      </c>
+      <c r="G73" t="s">
+        <v>168</v>
+      </c>
+      <c r="H73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A40" s="15"/>
-      <c r="B40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A42" s="16"/>
-      <c r="B42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" t="s">
-        <v>126</v>
-      </c>
-      <c r="G43" t="s">
-        <v>124</v>
-      </c>
-      <c r="H43" t="s">
-        <v>125</v>
-      </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A44" s="16"/>
-      <c r="B44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="17"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47" t="s">
-        <v>129</v>
-      </c>
-      <c r="H47" t="s">
-        <v>129</v>
-      </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" t="s">
-        <v>96</v>
-      </c>
-      <c r="F48" t="s">
-        <v>131</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
-      <c r="B49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
-      <c r="B50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
-      <c r="B51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-    </row>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+    </row>
     <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="82" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="83" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -10281,6 +11054,35 @@
     <row r="94" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="95" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="96" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10292,8 +11094,8 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10365,231 +11167,540 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B6" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B8" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B9" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B10" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B11" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B12" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B13" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B14" t="str">
         <f>"66"</f>
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -10985,11 +12096,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11016,7 +12127,7 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -11027,7 +12138,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -11038,7 +12149,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -11047,23 +12158,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="b">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -11071,43 +12182,54 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="b">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" t="s">
         <v>143</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -11115,10 +12237,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -11126,7 +12248,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -11135,9 +12257,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -11146,86 +12268,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" t="b">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="b">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -11233,16 +12355,104 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C31" t="b">
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
+++ b/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E17310-7525-473D-BEDB-B723C11EC8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E80E86-933A-491F-ABB2-F7267F11C3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="221">
   <si>
     <t>setting_name</t>
   </si>
@@ -371,9 +371,6 @@
     <t>LOCPARCODE</t>
   </si>
   <si>
-    <t>Em que centro de saúde/clínica/hospital a mulher procorou Ulitima Consulta Prenatal?</t>
-  </si>
-  <si>
     <t>ANC</t>
   </si>
   <si>
@@ -560,15 +557,9 @@
     <t>OOP_A_MATT_SEL</t>
   </si>
   <si>
-    <t>data("OOP_A_MATQ") == 0 || data("OOP_A_MATT_SEL") != null</t>
-  </si>
-  <si>
     <t>OOP_A_MATT_OU</t>
   </si>
   <si>
-    <t>data("OOP_A_MATQ") == 0 || data("OOP_A_MATT_OU") != null</t>
-  </si>
-  <si>
     <t>data("OOP_A_MATT_OU") =="1"</t>
   </si>
   <si>
@@ -578,15 +569,9 @@
     <t>OOP_A_DIAT_SEL</t>
   </si>
   <si>
-    <t>data("OOP_A_DIAQ") == 0 || data("OOP_A_DIAT_SEL") != null</t>
-  </si>
-  <si>
     <t>OOP_A_DIAT_OU</t>
   </si>
   <si>
-    <t>data("OOP_A_DIAQ") == 0 || data("OOP_A_DIAT_OU") != null</t>
-  </si>
-  <si>
     <t>data("OOP_A_DIAT_OU") =="1"</t>
   </si>
   <si>
@@ -596,15 +581,9 @@
     <t>OOP_A_MEDT_SEL</t>
   </si>
   <si>
-    <t>data("OOP_A_MEDQ") == 0 || data("OOP_A_MEDT_SEL") != null</t>
-  </si>
-  <si>
     <t>OOP_A_MEDT_OU</t>
   </si>
   <si>
-    <t>data("OOP_A_MEDQ") == 0 || data("OOP_A_MEDT_OU") != null</t>
-  </si>
-  <si>
     <t>data("OOP_A_MEDT_OU") =="1"</t>
   </si>
   <si>
@@ -614,15 +593,9 @@
     <t>OOP_A_OUTT_SEL</t>
   </si>
   <si>
-    <t>data("OOP_A_OUTQ") == 0 || data("OOP_A_OUTT_SEL") != null</t>
-  </si>
-  <si>
     <t>OOP_A_OUTT_OU</t>
   </si>
   <si>
-    <t>data("OOP_A_OUTQ") == 0 || data("OOP_A_OUTT_OU") != null</t>
-  </si>
-  <si>
     <t>data("OOP_A_OUTT_OU") =="1"</t>
   </si>
   <si>
@@ -705,6 +678,36 @@
   </si>
   <si>
     <t>Limpeza</t>
+  </si>
+  <si>
+    <t>Em que centro de saúde/clínica/hospital a mulher procorou Ultima Consulta Prenatal?</t>
+  </si>
+  <si>
+    <t>Se não obtou cartao durante este gravidez, indicar 8888, se não sabe o preco indicar 9999</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MATQ") == 0 || data("OOP_A_MATT_SEL") != null || data("OOP_ANC") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MATQ") == 0 || data("OOP_A_MATT_OU") != null || data("OOP_ANC") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_A_DIAQ") == 0 || data("OOP_A_DIAT_SEL") != null || data("OOP_ANC") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_A_DIAQ") == 0 || data("OOP_A_DIAT_OU") != null || data("OOP_ANC") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MEDQ") == 0 || data("OOP_A_MEDT_SEL") != null || data("OOP_ANC") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MEDQ") == 0 || data("OOP_A_MEDT_OU") != null || data("OOP_ANC") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_A_OUTQ") == 0 || data("OOP_A_OUTT_SEL") != null || data("OOP_ANC") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_A_OUTQ") == 0 || data("OOP_A_OUTT_OU") != null || data("OOP_ANC") != "1"</t>
   </si>
 </sst>
 </file>
@@ -851,7 +854,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -876,8 +879,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1207,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1223,7 +1224,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1231,10 +1232,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1264,7 +1265,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1280,9 +1281,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:XFD125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1416,13 +1417,13 @@
         <v>47</v>
       </c>
       <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
         <v>109</v>
-      </c>
-      <c r="G3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" t="s">
-        <v>110</v>
       </c>
       <c r="J3"/>
       <c r="L3"/>
@@ -9651,12 +9652,12 @@
       <c r="AG4" s="3"/>
     </row>
     <row r="5" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -9689,7 +9690,7 @@
       <c r="AF5" s="17"/>
       <c r="AG5" s="17"/>
     </row>
-    <row r="6" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" t="s">
         <v>37</v>
@@ -9720,13 +9721,13 @@
       <c r="Z6"/>
       <c r="AA6"/>
       <c r="AB6"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-    </row>
-    <row r="7" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+    </row>
+    <row r="7" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -9740,15 +9741,15 @@
         <v>105</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -9767,13 +9768,13 @@
       <c r="Z7"/>
       <c r="AA7"/>
       <c r="AB7"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-    </row>
-    <row r="8" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+    </row>
+    <row r="8" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>55</v>
@@ -9806,13 +9807,13 @@
       <c r="Z8"/>
       <c r="AA8"/>
       <c r="AB8"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-    </row>
-    <row r="9" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+    </row>
+    <row r="9" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -9821,24 +9822,24 @@
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L9" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="M9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -9855,33 +9856,33 @@
       <c r="Z9"/>
       <c r="AA9"/>
       <c r="AB9"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
     </row>
     <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="M10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
@@ -9889,7 +9890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>38</v>
@@ -9909,11 +9910,11 @@
       <c r="Z12"/>
       <c r="AA12"/>
       <c r="AB12"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
     </row>
     <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
@@ -9962,10 +9963,10 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -10009,7 +10010,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
@@ -10072,7 +10073,7 @@
       <c r="AG16" s="17"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="14" t="s">
         <v>56</v>
       </c>
@@ -10169,7 +10170,7 @@
         <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G21" t="s">
         <v>82</v>
@@ -10178,7 +10179,7 @@
         <v>82</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.35">
@@ -10186,7 +10187,7 @@
         <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G22" t="s">
         <v>83</v>
@@ -10195,7 +10196,7 @@
         <v>87</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.35">
@@ -10203,27 +10204,27 @@
         <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" t="s">
         <v>143</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" t="s">
         <v>144</v>
       </c>
-      <c r="F24" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>145</v>
       </c>
-      <c r="H24" t="s">
-        <v>146</v>
-      </c>
       <c r="K24" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.35">
@@ -10234,16 +10235,16 @@
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G25" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" t="s">
         <v>147</v>
       </c>
-      <c r="H25" t="s">
-        <v>148</v>
-      </c>
       <c r="K25" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.35">
@@ -10251,7 +10252,7 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.35">
@@ -10259,7 +10260,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G28" t="s">
         <v>85</v>
@@ -10268,7 +10269,7 @@
         <v>86</v>
       </c>
       <c r="K28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.35">
@@ -10299,7 +10300,7 @@
       </c>
       <c r="E33" s="14"/>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G33" t="s">
         <v>88</v>
@@ -10310,7 +10311,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="L33" s="14"/>
     </row>
@@ -10319,7 +10320,7 @@
         <v>84</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
@@ -10335,24 +10336,24 @@
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E35" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" s="14" t="s">
+      <c r="H35" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="L35" s="14"/>
     </row>
@@ -10366,18 +10367,18 @@
         <v>47</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G36" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="L36" s="14"/>
     </row>
@@ -10386,7 +10387,7 @@
         <v>84</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -10419,18 +10420,18 @@
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G39" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H39" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L39" s="14"/>
     </row>
@@ -10495,207 +10496,207 @@
       <c r="L43" s="14"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20" t="s">
+      <c r="E44" s="18"/>
+      <c r="F44" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L44" s="18"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B45" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="G44" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H44" s="20" t="s">
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="L44" s="20"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B45" s="20" t="s">
+      <c r="F46" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="L46" s="18"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="L47" s="18"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B48" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C48" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E46" s="20" t="s">
+      <c r="G50" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H46" s="20" t="s">
+      <c r="H50" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="L46" s="20"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="L47" s="20"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B48" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="L50" s="20"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L50" s="18"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55" s="17"/>
@@ -10705,7 +10706,7 @@
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G55" t="s">
         <v>90</v>
@@ -10716,7 +10717,7 @@
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L55" s="17"/>
     </row>
@@ -10725,7 +10726,7 @@
         <v>84</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
@@ -10741,24 +10742,24 @@
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E57" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G57" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G57" s="17" t="s">
+      <c r="H57" s="17" t="s">
         <v>161</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>162</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
       <c r="K57" s="17" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="L57" s="17"/>
     </row>
@@ -10772,10 +10773,10 @@
         <v>47</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H58" s="17" t="s">
         <v>90</v>
@@ -10783,7 +10784,7 @@
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="L58" s="17"/>
     </row>
@@ -10792,7 +10793,7 @@
         <v>84</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
@@ -10825,18 +10826,18 @@
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G61" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="H61" s="17" t="s">
         <v>161</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>162</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
       <c r="K61" s="17" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L61" s="17"/>
     </row>
@@ -10901,7 +10902,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.35">
@@ -10909,27 +10910,27 @@
         <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E69" t="s">
         <v>91</v>
       </c>
       <c r="F69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.35">
@@ -10937,10 +10938,10 @@
         <v>97</v>
       </c>
       <c r="E70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F70" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.35">
@@ -10958,13 +10959,13 @@
         <v>54</v>
       </c>
       <c r="F73" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G73" t="s">
+        <v>167</v>
+      </c>
+      <c r="H73" t="s">
         <v>168</v>
-      </c>
-      <c r="H73" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.35">
@@ -11302,197 +11303,197 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D23" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D26" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D27" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B29" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D30" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -11502,92 +11503,92 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B33" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D36" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B37" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D37" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -11597,92 +11598,92 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B39" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B41" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B42" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D42" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B43" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D43" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D44" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -11984,7 +11985,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -12098,7 +12099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
@@ -12127,7 +12128,7 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -12149,7 +12150,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -12160,7 +12161,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -12171,7 +12172,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -12182,10 +12183,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -12193,7 +12194,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -12204,7 +12205,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
@@ -12215,7 +12216,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -12226,10 +12227,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -12237,7 +12238,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -12248,7 +12249,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -12259,7 +12260,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -12270,10 +12271,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -12281,7 +12282,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -12292,7 +12293,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -12303,7 +12304,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -12314,10 +12315,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -12325,7 +12326,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -12336,7 +12337,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -12347,7 +12348,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -12358,10 +12359,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -12369,7 +12370,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>97</v>
@@ -12413,7 +12414,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
         <v>46</v>
@@ -12424,7 +12425,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
@@ -12435,7 +12436,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>

--- a/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
+++ b/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E80E86-933A-491F-ABB2-F7267F11C3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD01BFA8-8D46-4A5C-8E14-EB5A5A93E91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4920" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -458,9 +458,6 @@
     <t>Você pagou a sua última consulta de cuidados pré-natais e/ou o seu cartão de gravidez?</t>
   </si>
   <si>
-    <t>data("OOP_ANC") != null</t>
-  </si>
-  <si>
     <t>Se não obtou cartao durante est gravidez, indicar 8888, se não sabe o preco indicar 9999</t>
   </si>
   <si>
@@ -708,6 +705,9 @@
   </si>
   <si>
     <t>data("OOP_A_OUTQ") == 0 || data("OOP_A_OUTT_OU") != null || data("OOP_ANC") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_ANC") != null || data("ANC")!="1"</t>
   </si>
 </sst>
 </file>
@@ -1282,8 +1282,8 @@
   <dimension ref="A1:XFD125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9749,7 +9749,7 @@
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -9833,13 +9833,13 @@
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -9876,13 +9876,13 @@
         <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
@@ -9966,7 +9966,7 @@
         <v>111</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -10010,7 +10010,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
@@ -10179,7 +10179,7 @@
         <v>82</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.35">
@@ -10196,7 +10196,7 @@
         <v>87</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.35">
@@ -10209,22 +10209,22 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" t="s">
         <v>142</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" t="s">
         <v>143</v>
       </c>
-      <c r="F24" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>144</v>
       </c>
-      <c r="H24" t="s">
-        <v>145</v>
-      </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.35">
@@ -10235,16 +10235,16 @@
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G25" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" t="s">
         <v>146</v>
       </c>
-      <c r="H25" t="s">
-        <v>147</v>
-      </c>
       <c r="K25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.35">
@@ -10252,7 +10252,7 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.35">
@@ -10269,7 +10269,7 @@
         <v>86</v>
       </c>
       <c r="K28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.35">
@@ -10311,7 +10311,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L33" s="14"/>
     </row>
@@ -10336,24 +10336,24 @@
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E35" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="G35" s="14" t="s">
+      <c r="H35" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L35" s="14"/>
     </row>
@@ -10367,18 +10367,18 @@
         <v>47</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G36" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>152</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L36" s="14"/>
     </row>
@@ -10387,7 +10387,7 @@
         <v>84</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -10423,15 +10423,15 @@
         <v>122</v>
       </c>
       <c r="G39" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L39" s="14"/>
     </row>
@@ -10506,15 +10506,15 @@
         <v>123</v>
       </c>
       <c r="G44" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H44" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>154</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
       <c r="K44" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L44" s="18"/>
     </row>
@@ -10539,16 +10539,16 @@
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E46" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G46" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>89</v>
@@ -10556,7 +10556,7 @@
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
       <c r="K46" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L46" s="18"/>
     </row>
@@ -10570,18 +10570,18 @@
         <v>47</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G47" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H47" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>158</v>
       </c>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L47" s="18"/>
     </row>
@@ -10590,7 +10590,7 @@
         <v>84</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
@@ -10626,7 +10626,7 @@
         <v>125</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H50" s="18" t="s">
         <v>89</v>
@@ -10634,7 +10634,7 @@
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
       <c r="K50" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L50" s="18"/>
     </row>
@@ -10717,7 +10717,7 @@
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L55" s="17"/>
     </row>
@@ -10742,24 +10742,24 @@
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E57" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G57" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="G57" s="17" t="s">
+      <c r="H57" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>161</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
       <c r="K57" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L57" s="17"/>
     </row>
@@ -10773,10 +10773,10 @@
         <v>47</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H58" s="17" t="s">
         <v>90</v>
@@ -10784,7 +10784,7 @@
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L58" s="17"/>
     </row>
@@ -10793,7 +10793,7 @@
         <v>84</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
@@ -10829,15 +10829,15 @@
         <v>128</v>
       </c>
       <c r="G61" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H61" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>161</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
       <c r="K61" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L61" s="17"/>
     </row>
@@ -10902,7 +10902,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.35">
@@ -10913,15 +10913,15 @@
         <v>113</v>
       </c>
       <c r="G68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E69" t="s">
         <v>91</v>
@@ -10930,7 +10930,7 @@
         <v>114</v>
       </c>
       <c r="G69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.35">
@@ -10938,10 +10938,10 @@
         <v>97</v>
       </c>
       <c r="E70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.35">
@@ -10959,13 +10959,13 @@
         <v>54</v>
       </c>
       <c r="F73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G73" t="s">
+        <v>166</v>
+      </c>
+      <c r="H73" t="s">
         <v>167</v>
-      </c>
-      <c r="H73" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.35">
@@ -11303,197 +11303,197 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" t="s">
         <v>192</v>
-      </c>
-      <c r="D16" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" t="s">
         <v>194</v>
-      </c>
-      <c r="D18" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B25" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" t="s">
         <v>198</v>
-      </c>
-      <c r="D26" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" t="s">
         <v>200</v>
-      </c>
-      <c r="D27" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B29" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -11503,92 +11503,92 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B37" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -11598,92 +11598,92 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B39" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B41" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B42" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B44" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -12183,10 +12183,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -12194,7 +12194,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -12227,10 +12227,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -12238,7 +12238,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -12271,10 +12271,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -12282,7 +12282,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -12315,10 +12315,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -12326,7 +12326,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -12337,7 +12337,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -12362,7 +12362,7 @@
         <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -12370,7 +12370,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>97</v>

--- a/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
+++ b/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD01BFA8-8D46-4A5C-8E14-EB5A5A93E91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9653D335-AA16-42A0-AE06-D940A63C0F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4920" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="249">
   <si>
     <t>setting_name</t>
   </si>
@@ -308,9 +308,6 @@
     <t>Quais materiais?</t>
   </si>
   <si>
-    <t>Materiais?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Diagnósticos: </t>
   </si>
   <si>
@@ -374,15 +371,9 @@
     <t>ANC</t>
   </si>
   <si>
-    <t>Você procorou consulta prenatal?</t>
-  </si>
-  <si>
     <t xml:space="preserve">data("ANC") == "1" </t>
   </si>
   <si>
-    <t xml:space="preserve">At which health centre/clinic/hospital did the woman seek the last ANC? </t>
-  </si>
-  <si>
     <t>LOCPAR_FORA</t>
   </si>
   <si>
@@ -455,21 +446,12 @@
     <t>Out of pocket payments ANC</t>
   </si>
   <si>
-    <t>Você pagou a sua última consulta de cuidados pré-natais e/ou o seu cartão de gravidez?</t>
-  </si>
-  <si>
-    <t>Se não obtou cartao durante est gravidez, indicar 8888, se não sabe o preco indicar 9999</t>
-  </si>
-  <si>
     <t>data("OOP_ANC") !="1" ||data("OOP_A_C_CPN")!=null</t>
   </si>
   <si>
     <t>data("OOP_ANC") !="1" ||data("OOP_A_C_TT")!=null</t>
   </si>
   <si>
-    <t>data('LOCPARCODE')!=null|| data('ANC')!="1"</t>
-  </si>
-  <si>
     <t>select_multiple</t>
   </si>
   <si>
@@ -479,36 +461,21 @@
     <t>Which materials</t>
   </si>
   <si>
-    <t>Quais materias?</t>
-  </si>
-  <si>
     <t>Other materials</t>
   </si>
   <si>
-    <t>Outros materiass?</t>
-  </si>
-  <si>
     <t>Diagnostics</t>
   </si>
   <si>
     <t>Which diagnostics</t>
   </si>
   <si>
-    <t>Quais diagnostics?</t>
-  </si>
-  <si>
     <t>Other diagnostics</t>
   </si>
   <si>
-    <t>Outros diagnostics?</t>
-  </si>
-  <si>
     <t>Medicine:</t>
   </si>
   <si>
-    <t>Medicamentos?</t>
-  </si>
-  <si>
     <t>Medicines</t>
   </si>
   <si>
@@ -530,9 +497,6 @@
     <t>Quais outros despesas?</t>
   </si>
   <si>
-    <t>Other expenses</t>
-  </si>
-  <si>
     <t>Transporte</t>
   </si>
   <si>
@@ -548,9 +512,6 @@
     <t>Observations</t>
   </si>
   <si>
-    <t>Observacoes</t>
-  </si>
-  <si>
     <t>OOP_A_MATT_SEL</t>
   </si>
   <si>
@@ -593,12 +554,6 @@
     <t>OOP_A_OUTT_OU</t>
   </si>
   <si>
-    <t>data("OOP_A_OUTT_OU") =="1"</t>
-  </si>
-  <si>
-    <t>data("OOP_A_OUTT") != null || data("OOP_A_OUTT_SEL") != "1"</t>
-  </si>
-  <si>
     <t>OOP_A_TRAM_OU</t>
   </si>
   <si>
@@ -623,9 +578,6 @@
     <t>All means of transport covered above</t>
   </si>
   <si>
-    <t>Todos meios de transporte incluindo em cima</t>
-  </si>
-  <si>
     <t>Gloves</t>
   </si>
   <si>
@@ -641,15 +593,9 @@
     <t>Blood test</t>
   </si>
   <si>
-    <t>Analyses de sangue</t>
-  </si>
-  <si>
     <t>Urine test</t>
   </si>
   <si>
-    <t>Analyses de urina</t>
-  </si>
-  <si>
     <t>Antibiotics</t>
   </si>
   <si>
@@ -659,9 +605,6 @@
     <t>Fansidar</t>
   </si>
   <si>
-    <t>Antibionticos</t>
-  </si>
-  <si>
     <t>Vitaminas</t>
   </si>
   <si>
@@ -677,12 +620,6 @@
     <t>Limpeza</t>
   </si>
   <si>
-    <t>Em que centro de saúde/clínica/hospital a mulher procorou Ultima Consulta Prenatal?</t>
-  </si>
-  <si>
-    <t>Se não obtou cartao durante este gravidez, indicar 8888, se não sabe o preco indicar 9999</t>
-  </si>
-  <si>
     <t>data("OOP_A_MATQ") == 0 || data("OOP_A_MATT_SEL") != null || data("OOP_ANC") != "1"</t>
   </si>
   <si>
@@ -701,13 +638,160 @@
     <t>data("OOP_A_MEDQ") == 0 || data("OOP_A_MEDT_OU") != null || data("OOP_ANC") != "1"</t>
   </si>
   <si>
-    <t>data("OOP_A_OUTQ") == 0 || data("OOP_A_OUTT_SEL") != null || data("OOP_ANC") != "1"</t>
-  </si>
-  <si>
-    <t>data("OOP_A_OUTQ") == 0 || data("OOP_A_OUTT_OU") != null || data("OOP_ANC") != "1"</t>
-  </si>
-  <si>
     <t>data("OOP_ANC") != null || data("ANC")!="1"</t>
+  </si>
+  <si>
+    <t>Quanto pagou pelos materiais?</t>
+  </si>
+  <si>
+    <t>Se não obtou cartao durante est gravidez, indicar 88, se não sabe o preco indicar 33</t>
+  </si>
+  <si>
+    <t>Se não obtou cartao durante este gravidez, indicar 88, se não sabe o preco indicar 33</t>
+  </si>
+  <si>
+    <t>Você pagou a sua última consulta de cuidados pré-natais ?</t>
+  </si>
+  <si>
+    <t>select_one_dropdown</t>
+  </si>
+  <si>
+    <t>regpar</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>data("LOCPARCODE") != null || (data("LOCPAR") != 2 &amp;&amp; data("LOCPAR") != 3)</t>
+  </si>
+  <si>
+    <t>choice_item.reg === data("regpar")</t>
+  </si>
+  <si>
+    <t>NotOnList</t>
+  </si>
+  <si>
+    <t>locparcodens</t>
+  </si>
+  <si>
+    <t>data("locparcodens") != null</t>
+  </si>
+  <si>
+    <t>data("locparcodens") == "8888"</t>
+  </si>
+  <si>
+    <t>LOCPAROU</t>
+  </si>
+  <si>
+    <t>Where?</t>
+  </si>
+  <si>
+    <t>Onde?</t>
+  </si>
+  <si>
+    <t>data("LOCPAROU") != null || data("locparcodens") != "8888" || (data("LOCPAR") != 2 &amp;&amp; data("LOCPAR") != 3)</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>data("locparcodens")</t>
+  </si>
+  <si>
+    <t>Em que centro de saúde/clínica/hospital  {{data.NOMEMUL}}  procorou Ultima Consulta Prenatal?</t>
+  </si>
+  <si>
+    <t>data("OOP_A_OUTT") != null || data("OOP_A_OUTQ") ==0</t>
+  </si>
+  <si>
+    <t>Quanto é que pagou pelo seguinte durante este gravidez:</t>
+  </si>
+  <si>
+    <t>Other place</t>
+  </si>
+  <si>
+    <t>Outro lugar</t>
+  </si>
+  <si>
+    <t>Outros materias?</t>
+  </si>
+  <si>
+    <t>Place of Consultation</t>
+  </si>
+  <si>
+    <t>Nemhuma</t>
+  </si>
+  <si>
+    <t>Nemhuma destes</t>
+  </si>
+  <si>
+    <t>data("OOP_A_TRAM")!=null ||data("OOP_A_TRAM")==0</t>
+  </si>
+  <si>
+    <t>data("OOP_A_TRAM_OU")!=null ||data("OOP_A_TRAM")==0</t>
+  </si>
+  <si>
+    <t>Vacina TT</t>
+  </si>
+  <si>
+    <t>Ambulância</t>
+  </si>
+  <si>
+    <t>Não foi possivel arranjar transporte</t>
+  </si>
+  <si>
+    <t>Análises de sangue</t>
+  </si>
+  <si>
+    <t>Análises de urina</t>
+  </si>
+  <si>
+    <t>Antibióticos</t>
+  </si>
+  <si>
+    <t>Você procorou alguma consulta de cuidados pré-natais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quanto é que pagou pelos diagnósticos/exames/análises: </t>
+  </si>
+  <si>
+    <t>Quais diagnósticos? (diagnósticos/exames/análises)</t>
+  </si>
+  <si>
+    <t>Outros diagnósticos/exames/análises?</t>
+  </si>
+  <si>
+    <t>Quais diagnósticos/exames/análises?</t>
+  </si>
+  <si>
+    <t>Quanto é que pagou pelos medicamentos?</t>
+  </si>
+  <si>
+    <t>Quanto é que pagou pelos outros despesas?</t>
+  </si>
+  <si>
+    <t>Você pagou a sua última consulta de cuidados pré-natais?</t>
+  </si>
+  <si>
+    <t>Em que centro de saúde/clínica/hospital  {{data.NOMEMUL}}  procorou a sua última consulta de cuidados pré-natais?</t>
+  </si>
+  <si>
+    <t>Local de consulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quanto é que pagou pelo transporte de/para o estabelecimento de saúde (ida e volta)? </t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>Indique: 33 se não sabe; 77 se recusou-se a responder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos os meios de transporte estão incluídos acima </t>
   </si>
 </sst>
 </file>
@@ -786,7 +870,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -829,6 +913,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -854,7 +950,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -881,6 +977,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1208,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1224,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1232,10 +1331,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1265,7 +1364,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1279,11 +1378,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:XFD125"/>
+  <dimension ref="A1:XFD210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1296,7 +1395,7 @@
     <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.26953125" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="9" width="29.81640625" customWidth="1"/>
+    <col min="9" max="9" width="6.08984375" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.26953125" customWidth="1"/>
     <col min="12" max="12" width="40.453125" customWidth="1"/>
@@ -1417,13 +1516,13 @@
         <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="J3"/>
       <c r="L3"/>
@@ -9657,7 +9756,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -9692,9 +9791,7 @@
     </row>
     <row r="6" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6"/>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
+      <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
@@ -9738,18 +9835,18 @@
         <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -9780,7 +9877,7 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -9814,33 +9911,21 @@
       <c r="AG8"/>
     </row>
     <row r="9" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9"/>
-      <c r="B9"/>
+      <c r="A9" s="14"/>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
       <c r="C9"/>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
+      <c r="D9"/>
       <c r="E9"/>
-      <c r="F9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" t="s">
-        <v>130</v>
-      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" t="s">
-        <v>211</v>
-      </c>
-      <c r="M9" t="s">
-        <v>137</v>
-      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
@@ -9862,39 +9947,118 @@
       <c r="AF9"/>
       <c r="AG9"/>
     </row>
-    <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
       <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+    </row>
+    <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L10" t="s">
-        <v>211</v>
-      </c>
-      <c r="M10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11" t="s">
+        <v>247</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
     </row>
     <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12"/>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>198</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>172</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
@@ -9917,1144 +10081,1992 @@
       <c r="AG12"/>
     </row>
     <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+    </row>
+    <row r="14" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14" t="s">
+        <v>191</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+    </row>
+    <row r="15" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+    </row>
+    <row r="16" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16"/>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+    </row>
+    <row r="17" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+    </row>
+    <row r="18" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+    </row>
+    <row r="19" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19"/>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+    </row>
+    <row r="20" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+    </row>
+    <row r="21" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21"/>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+    </row>
+    <row r="22" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22"/>
+      <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-    </row>
-    <row r="14" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+    </row>
+    <row r="23" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" t="s">
+        <v>236</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" s="14"/>
+      <c r="M23" t="s">
+        <v>247</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+    </row>
+    <row r="24" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24"/>
+      <c r="B24" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+    </row>
+    <row r="25" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" s="14"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+    </row>
+    <row r="26" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="L26" s="14"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+    </row>
+    <row r="27" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27"/>
+      <c r="B27" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+    </row>
+    <row r="28" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+    </row>
+    <row r="29" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" s="14"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+    </row>
+    <row r="30" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30"/>
+      <c r="B30" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+    </row>
+    <row r="31" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31"/>
+      <c r="B31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+    </row>
+    <row r="32" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32"/>
+      <c r="B32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+    </row>
+    <row r="33" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33"/>
+      <c r="B33" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+    </row>
+    <row r="34" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L34" s="18"/>
+      <c r="M34" t="s">
+        <v>247</v>
+      </c>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+    </row>
+    <row r="35" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35"/>
+      <c r="B35" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+    </row>
+    <row r="36" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="L36" s="18"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+    </row>
+    <row r="37" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="L37" s="18"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+    </row>
+    <row r="38" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38"/>
+      <c r="B38" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+    </row>
+    <row r="39" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+    </row>
+    <row r="40" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L40" s="18"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+    </row>
+    <row r="41" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41"/>
+      <c r="B41" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+    </row>
+    <row r="42" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42"/>
+      <c r="B42" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+    </row>
+    <row r="43" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43"/>
+      <c r="B43" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+    </row>
+    <row r="44" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+    </row>
+    <row r="45" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45"/>
+      <c r="B45" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+    </row>
+    <row r="46" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+    </row>
+    <row r="47" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47"/>
+      <c r="B47" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+    </row>
+    <row r="48" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+    </row>
+    <row r="49" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49"/>
+      <c r="B49" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+    </row>
+    <row r="50" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50"/>
+      <c r="B50" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A51" s="15"/>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D53" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
+      <c r="G53" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="S53" s="20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D54" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D55" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="K55" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="T55" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="S56" s="20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D59" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="K59" s="20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D61" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="S61" s="20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s">
+        <v>150</v>
+      </c>
+      <c r="H66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G67" t="s">
+        <v>151</v>
+      </c>
+      <c r="H67" t="s">
+        <v>245</v>
+      </c>
+      <c r="K67" t="s">
+        <v>227</v>
+      </c>
+      <c r="M67" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F68" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-    </row>
-    <row r="15" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
+      <c r="G68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H68" t="s">
+        <v>152</v>
+      </c>
+      <c r="K68" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D72" t="s">
+        <v>54</v>
+      </c>
+      <c r="F72" t="s">
+        <v>170</v>
+      </c>
+      <c r="G72" t="s">
+        <v>154</v>
+      </c>
+      <c r="H72" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76" t="s">
+        <v>220</v>
+      </c>
+      <c r="H76" t="s">
+        <v>220</v>
+      </c>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+      <c r="AE76"/>
+      <c r="AF76"/>
+      <c r="AG76"/>
+    </row>
+    <row r="77" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+      <c r="AG77"/>
+    </row>
+    <row r="78" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-    </row>
-    <row r="16" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17" t="s">
+      <c r="E78"/>
+      <c r="F78" t="s">
+        <v>129</v>
+      </c>
+      <c r="G78" t="s">
+        <v>127</v>
+      </c>
+      <c r="H78" t="s">
+        <v>127</v>
+      </c>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78" t="s">
+        <v>133</v>
+      </c>
+      <c r="L78" t="s">
+        <v>200</v>
+      </c>
+      <c r="M78" t="s">
+        <v>199</v>
+      </c>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+      <c r="AE78"/>
+      <c r="AF78"/>
+      <c r="AG78"/>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D79" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" t="s">
+        <v>130</v>
+      </c>
+      <c r="G79" t="s">
+        <v>128</v>
+      </c>
+      <c r="H79" t="s">
+        <v>128</v>
+      </c>
+      <c r="K79" t="s">
+        <v>134</v>
+      </c>
+      <c r="L79" t="s">
+        <v>200</v>
+      </c>
+      <c r="M79" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81"/>
+      <c r="B81" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="14" t="s">
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+      <c r="AF81"/>
+      <c r="AG81"/>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A82" s="19"/>
+      <c r="B82" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="D24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" t="s">
-        <v>144</v>
-      </c>
-      <c r="K24" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" t="s">
-        <v>146</v>
-      </c>
-      <c r="K25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="D28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" t="s">
-        <v>86</v>
-      </c>
-      <c r="K28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" t="s">
-        <v>88</v>
-      </c>
-      <c r="H33" t="s">
-        <v>88</v>
-      </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B34" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="L35" s="14"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B37" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="L39" s="14"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B40" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B41" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B42" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B43" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="L44" s="18"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B45" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="L46" s="18"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="L47" s="18"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B48" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="L50" s="18"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B51" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B52" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B53" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B54" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G55" t="s">
-        <v>90</v>
-      </c>
-      <c r="H55" t="s">
-        <v>90</v>
-      </c>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="L55" s="17"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B56" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="L57" s="17"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="H58" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="L58" s="17"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B59" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="L61" s="17"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B62" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B63" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B64" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A65" s="15"/>
-      <c r="B65" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B66" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D68" t="s">
-        <v>45</v>
-      </c>
-      <c r="F68" t="s">
-        <v>113</v>
-      </c>
-      <c r="G68" t="s">
-        <v>163</v>
-      </c>
-      <c r="H68" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D69" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" t="s">
-        <v>91</v>
-      </c>
-      <c r="F69" t="s">
-        <v>114</v>
-      </c>
-      <c r="G69" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D70" t="s">
-        <v>97</v>
-      </c>
-      <c r="E70" t="s">
-        <v>165</v>
-      </c>
-      <c r="F70" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B71" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D73" t="s">
-        <v>54</v>
-      </c>
-      <c r="F73" t="s">
-        <v>185</v>
-      </c>
-      <c r="G73" t="s">
-        <v>166</v>
-      </c>
-      <c r="H73" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B74" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-    </row>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="17"/>
+      <c r="X82" s="17"/>
+      <c r="Y82" s="17"/>
+      <c r="Z82" s="17"/>
+      <c r="AA82" s="17"/>
+      <c r="AB82" s="17"/>
+      <c r="AC82" s="17"/>
+      <c r="AD82" s="17"/>
+      <c r="AE82" s="17"/>
+      <c r="AF82" s="17"/>
+      <c r="AG82" s="17"/>
+    </row>
     <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -11084,6 +12096,141 @@
     <row r="123" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="124" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="125" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="11"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="11"/>
+      <c r="S140" s="3"/>
+      <c r="T140" s="3"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="3"/>
+      <c r="P141" s="3"/>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="11"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="3"/>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="11"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3"/>
+    </row>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11094,9 +12241,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11168,332 +12315,347 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" t="str">
         <f>"66"</f>
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B18" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B19" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B20" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B21" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B22" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B23" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B25" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B26" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B27" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B28" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D28" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B29" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D29" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B30" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D30" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -11503,92 +12665,92 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B32" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B33" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B34" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B35" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B36" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B37" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -11598,92 +12760,92 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B39" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B40" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B41" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B42" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B43" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D43" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B44" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -11692,14 +12854,34 @@
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="A46" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" t="str">
+        <f>"8888"</f>
+        <v>8888</v>
+      </c>
+      <c r="C46" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="A47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" t="str">
+        <f>"9999"</f>
+        <v>9999</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" s="8"/>
@@ -12097,11 +13279,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12128,7 +13310,7 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -12139,7 +13321,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -12150,7 +13332,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -12161,7 +13343,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -12172,7 +13354,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -12183,10 +13365,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -12194,7 +13376,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -12205,7 +13387,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
@@ -12216,7 +13398,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -12227,10 +13409,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -12238,7 +13420,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -12249,7 +13431,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -12260,7 +13442,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -12271,10 +13453,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -12282,7 +13464,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -12293,7 +13475,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -12304,7 +13486,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -12315,10 +13497,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -12326,7 +13508,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -12337,7 +13519,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -12348,7 +13530,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -12359,10 +13541,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -12370,10 +13552,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -12381,7 +13563,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>54</v>
@@ -12392,7 +13574,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -12403,7 +13585,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>
@@ -12414,7 +13596,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
         <v>46</v>
@@ -12425,7 +13607,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
@@ -12436,7 +13618,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -12446,14 +13628,47 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" t="b">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
+++ b/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9653D335-AA16-42A0-AE06-D940A63C0F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98869F89-098A-4D55-A86F-A3CD9A927FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="259">
   <si>
     <t>setting_name</t>
   </si>
@@ -338,9 +338,6 @@
     <t>select_one_with_other</t>
   </si>
   <si>
-    <t>Nao foi possive arranjar transporter</t>
-  </si>
-  <si>
     <t>Nao sabe</t>
   </si>
   <si>
@@ -704,9 +701,6 @@
     <t>Em que centro de saúde/clínica/hospital  {{data.NOMEMUL}}  procorou Ultima Consulta Prenatal?</t>
   </si>
   <si>
-    <t>data("OOP_A_OUTT") != null || data("OOP_A_OUTQ") ==0</t>
-  </si>
-  <si>
     <t>Quanto é que pagou pelo seguinte durante este gravidez:</t>
   </si>
   <si>
@@ -740,9 +734,6 @@
     <t>Ambulância</t>
   </si>
   <si>
-    <t>Não foi possivel arranjar transporte</t>
-  </si>
-  <si>
     <t>Análises de sangue</t>
   </si>
   <si>
@@ -773,9 +764,6 @@
     <t>Quanto é que pagou pelos outros despesas?</t>
   </si>
   <si>
-    <t>Você pagou a sua última consulta de cuidados pré-natais?</t>
-  </si>
-  <si>
     <t>Em que centro de saúde/clínica/hospital  {{data.NOMEMUL}}  procorou a sua última consulta de cuidados pré-natais?</t>
   </si>
   <si>
@@ -792,6 +780,48 @@
   </si>
   <si>
     <t xml:space="preserve">Todos os meios de transporte estão incluídos acima </t>
+  </si>
+  <si>
+    <t>data("OOP_A_OUTT") != null || data("OOP_A_OUTQ") ==0|| data("OOP_ANC") != "1"</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Onde Foi a Consulta CPN?</t>
+  </si>
+  <si>
+    <t>Onde Foi a Ultimo Consulta CPN?</t>
+  </si>
+  <si>
+    <t>ANCPLACE</t>
+  </si>
+  <si>
+    <t>Health Facility</t>
+  </si>
+  <si>
+    <t>Estabelisimento Sanitaria</t>
+  </si>
+  <si>
+    <t>Outreach in the village</t>
+  </si>
+  <si>
+    <t>Estrategia Avancada na Tabanca</t>
+  </si>
+  <si>
+    <t>Outreach elsewhere</t>
+  </si>
+  <si>
+    <t>Você pagou à sua última consulta de cuidados pré-natais? (Prestacao de servico, materiais, diagnosticos, medicamentos)</t>
+  </si>
+  <si>
+    <t>Nao sabe destinguir</t>
+  </si>
+  <si>
+    <t>Estrategia Avancada num outro local fora da Tabanca</t>
+  </si>
+  <si>
+    <t>Carro de Transporte</t>
   </si>
 </sst>
 </file>
@@ -870,7 +900,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,6 +955,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -950,7 +986,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -980,6 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1307,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1323,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1331,10 +1368,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1364,7 +1401,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1378,11 +1415,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:XFD210"/>
+  <dimension ref="A1:XFD215"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M67" sqref="M67"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1516,13 +1553,13 @@
         <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J3"/>
       <c r="L3"/>
@@ -9756,7 +9793,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -9824,7 +9861,7 @@
       <c r="AF6"/>
       <c r="AG6"/>
     </row>
-    <row r="7" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -9835,18 +9872,18 @@
         <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -9872,12 +9909,12 @@
       <c r="AG7"/>
     </row>
     <row r="8" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8"/>
+      <c r="A8" s="23"/>
       <c r="B8" t="s">
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -9997,7 +10034,7 @@
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
         <v>82</v>
@@ -10008,11 +10045,11 @@
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L11"/>
       <c r="M11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -10044,18 +10081,18 @@
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
         <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
@@ -10086,7 +10123,7 @@
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -10124,16 +10161,16 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" t="s">
         <v>135</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
         <v>136</v>
-      </c>
-      <c r="F14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" t="s">
-        <v>137</v>
       </c>
       <c r="H14" t="s">
         <v>86</v>
@@ -10141,7 +10178,7 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
@@ -10177,18 +10214,18 @@
         <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
@@ -10219,7 +10256,7 @@
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -10296,7 +10333,7 @@
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
         <v>85</v>
@@ -10307,7 +10344,7 @@
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -10489,22 +10526,22 @@
       </c>
       <c r="E23" s="14"/>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G23" t="s">
         <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N23"/>
       <c r="O23"/>
@@ -10533,7 +10570,7 @@
         <v>84</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -10571,24 +10608,24 @@
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>140</v>
-      </c>
       <c r="H25" s="14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25"/>
@@ -10624,18 +10661,18 @@
         <v>47</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26"/>
@@ -10666,7 +10703,7 @@
         <v>84</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -10743,18 +10780,18 @@
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29"/>
@@ -10936,22 +10973,22 @@
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L34" s="18"/>
       <c r="M34" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -10980,7 +11017,7 @@
         <v>84</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -11018,16 +11055,16 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E36" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="H36" s="18" t="s">
         <v>88</v>
@@ -11035,7 +11072,7 @@
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L36" s="18"/>
       <c r="M36"/>
@@ -11071,18 +11108,18 @@
         <v>47</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G37" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H37" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>146</v>
       </c>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
       <c r="K37" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L37" s="18"/>
       <c r="M37"/>
@@ -11113,7 +11150,7 @@
         <v>84</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
@@ -11190,10 +11227,10 @@
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H40" s="18" t="s">
         <v>88</v>
@@ -11201,7 +11238,7 @@
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
       <c r="K40" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L40" s="18"/>
       <c r="M40"/>
@@ -11418,22 +11455,22 @@
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G46" s="22" t="s">
         <v>89</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I46" s="22"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L46" s="22"/>
       <c r="M46" s="22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -11462,7 +11499,7 @@
         <v>84</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -11504,18 +11541,18 @@
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G48" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H48" s="22" t="s">
         <v>148</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>149</v>
       </c>
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
@@ -11630,10 +11667,10 @@
         <v>35</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="S53" s="20" t="b">
         <v>1</v>
@@ -11641,64 +11678,73 @@
     </row>
     <row r="54" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D54" s="20" t="s">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D55" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E55" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="G55" s="20" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="K55" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="T55" s="21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D56" s="20" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="E56" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="K56" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="T56" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F57" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="F56" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="S56" s="20" t="b">
+      <c r="S57" s="20" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -11706,176 +11752,244 @@
         <v>55</v>
       </c>
       <c r="C58" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D60" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="20" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="59" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D59" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="20" t="s">
+      <c r="G60" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="H60" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="H59" s="20" t="s">
+      <c r="K60" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="K59" s="20" t="s">
+    </row>
+    <row r="61" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D62" s="20" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="60" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D61" s="20" t="s">
+      <c r="F62" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I62" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="F61" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I61" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="S61" s="20" t="b">
+      <c r="S62" s="20" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="20" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="D66" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66" t="s">
-        <v>150</v>
-      </c>
-      <c r="H66" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H67" t="s">
-        <v>245</v>
-      </c>
-      <c r="K67" t="s">
-        <v>227</v>
-      </c>
-      <c r="M67" t="s">
-        <v>247</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D68" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H68" t="s">
-        <v>152</v>
+        <v>241</v>
       </c>
       <c r="K68" t="s">
-        <v>228</v>
+        <v>225</v>
+      </c>
+      <c r="M68" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D69" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" t="s">
+        <v>110</v>
+      </c>
+      <c r="G69" t="s">
+        <v>151</v>
+      </c>
+      <c r="H69" t="s">
+        <v>151</v>
+      </c>
+      <c r="K69" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D70" t="s">
         <v>96</v>
       </c>
-      <c r="E69" t="s">
-        <v>153</v>
-      </c>
-      <c r="F69" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B70" t="s">
-        <v>38</v>
+      <c r="E70" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="D72" t="s">
-        <v>54</v>
-      </c>
-      <c r="F72" t="s">
-        <v>170</v>
-      </c>
-      <c r="G72" t="s">
-        <v>154</v>
-      </c>
-      <c r="H72" t="s">
-        <v>246</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B75" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="74" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74" t="s">
+        <v>218</v>
+      </c>
+      <c r="H74" t="s">
+        <v>218</v>
+      </c>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+      <c r="AF74"/>
+      <c r="AG74"/>
+    </row>
+    <row r="75" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+      <c r="AE75"/>
+      <c r="AF75"/>
+      <c r="AG75"/>
     </row>
     <row r="76" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E76"/>
-      <c r="F76"/>
+      <c r="F76" t="s">
+        <v>128</v>
+      </c>
       <c r="G76" t="s">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="H76" t="s">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="I76"/>
       <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
+      <c r="K76" t="s">
+        <v>132</v>
+      </c>
+      <c r="L76" t="s">
+        <v>199</v>
+      </c>
+      <c r="M76" t="s">
+        <v>198</v>
+      </c>
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
@@ -11897,175 +12011,139 @@
       <c r="AF76"/>
       <c r="AG76"/>
     </row>
-    <row r="77" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-      <c r="Z77"/>
-      <c r="AA77"/>
-      <c r="AB77"/>
-      <c r="AC77"/>
-      <c r="AD77"/>
-      <c r="AE77"/>
-      <c r="AF77"/>
-      <c r="AG77"/>
-    </row>
-    <row r="78" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78" t="s">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D77" t="s">
         <v>45</v>
       </c>
-      <c r="E78"/>
-      <c r="F78" t="s">
+      <c r="F77" t="s">
         <v>129</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G77" t="s">
         <v>127</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H77" t="s">
         <v>127</v>
       </c>
-      <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78" t="s">
+      <c r="K77" t="s">
         <v>133</v>
       </c>
-      <c r="L78" t="s">
-        <v>200</v>
-      </c>
-      <c r="M78" t="s">
+      <c r="L77" t="s">
         <v>199</v>
       </c>
-      <c r="N78"/>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
-      <c r="T78"/>
-      <c r="U78"/>
-      <c r="V78"/>
-      <c r="W78"/>
-      <c r="X78"/>
-      <c r="Y78"/>
-      <c r="Z78"/>
-      <c r="AA78"/>
-      <c r="AB78"/>
-      <c r="AC78"/>
-      <c r="AD78"/>
-      <c r="AE78"/>
-      <c r="AF78"/>
-      <c r="AG78"/>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="D79" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" t="s">
-        <v>130</v>
-      </c>
-      <c r="G79" t="s">
-        <v>128</v>
-      </c>
-      <c r="H79" t="s">
-        <v>128</v>
-      </c>
-      <c r="K79" t="s">
-        <v>134</v>
-      </c>
-      <c r="L79" t="s">
-        <v>200</v>
-      </c>
-      <c r="M79" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81"/>
-      <c r="B81" t="s">
+      <c r="M77" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79"/>
+      <c r="B79" t="s">
         <v>38</v>
       </c>
-      <c r="N81"/>
-      <c r="O81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81"/>
-      <c r="T81"/>
-      <c r="U81"/>
-      <c r="V81"/>
-      <c r="W81"/>
-      <c r="X81"/>
-      <c r="Y81"/>
-      <c r="Z81"/>
-      <c r="AA81"/>
-      <c r="AB81"/>
-      <c r="AC81"/>
-      <c r="AD81"/>
-      <c r="AE81"/>
-      <c r="AF81"/>
-      <c r="AG81"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+      <c r="AF79"/>
+      <c r="AG79"/>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D81" t="s">
+        <v>54</v>
+      </c>
+      <c r="F81" t="s">
+        <v>169</v>
+      </c>
+      <c r="G81" t="s">
+        <v>153</v>
+      </c>
+      <c r="H81" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A82" s="19"/>
-      <c r="B82" s="14" t="s">
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+      <c r="AG83"/>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A84" s="19"/>
+      <c r="B84" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="17"/>
-      <c r="T82" s="17"/>
-      <c r="U82" s="17"/>
-      <c r="V82" s="17"/>
-      <c r="W82" s="17"/>
-      <c r="X82" s="17"/>
-      <c r="Y82" s="17"/>
-      <c r="Z82" s="17"/>
-      <c r="AA82" s="17"/>
-      <c r="AB82" s="17"/>
-      <c r="AC82" s="17"/>
-      <c r="AD82" s="17"/>
-      <c r="AE82" s="17"/>
-      <c r="AF82" s="17"/>
-      <c r="AG82" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="17"/>
+      <c r="X84" s="17"/>
+      <c r="Y84" s="17"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="17"/>
+      <c r="AB84" s="17"/>
+      <c r="AC84" s="17"/>
+      <c r="AD84" s="17"/>
+      <c r="AE84" s="17"/>
+      <c r="AF84" s="17"/>
+      <c r="AG84" s="17"/>
     </row>
     <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -12099,42 +12177,9 @@
     <row r="126" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="127" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="128" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
-      <c r="M139" s="3"/>
-      <c r="N139" s="3"/>
-      <c r="O139" s="3"/>
-      <c r="P139" s="3"/>
-      <c r="Q139" s="3"/>
-      <c r="R139" s="11"/>
-      <c r="S139" s="3"/>
-      <c r="T139" s="3"/>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="J140" s="3"/>
-      <c r="K140" s="3"/>
-      <c r="L140" s="3"/>
-      <c r="M140" s="3"/>
-      <c r="N140" s="3"/>
-      <c r="O140" s="3"/>
-      <c r="P140" s="3"/>
-      <c r="Q140" s="3"/>
-      <c r="R140" s="11"/>
-      <c r="S140" s="3"/>
-      <c r="T140" s="3"/>
-    </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -12150,9 +12195,6 @@
     <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
@@ -12164,6 +12206,42 @@
       <c r="R142" s="11"/>
       <c r="S142" s="3"/>
       <c r="T142" s="3"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="11"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="3"/>
+      <c r="P144" s="3"/>
+      <c r="Q144" s="3"/>
+      <c r="R144" s="11"/>
+      <c r="S144" s="3"/>
+      <c r="T144" s="3"/>
     </row>
     <row r="145" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="146" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -12231,6 +12309,11 @@
     <row r="208" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="209" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="210" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12239,11 +12322,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12322,10 +12405,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -12355,7 +12438,7 @@
         <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -12400,7 +12483,7 @@
         <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -12408,14 +12491,14 @@
         <v>90</v>
       </c>
       <c r="B12" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <f>"33"</f>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -12423,14 +12506,14 @@
         <v>90</v>
       </c>
       <c r="B13" t="str">
-        <f>"33"</f>
-        <v>33</v>
+        <f>"66"</f>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -12438,519 +12521,538 @@
         <v>90</v>
       </c>
       <c r="B14" t="str">
-        <f>"66"</f>
-        <v>66</v>
+        <f>"77"</f>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="B15" t="str">
-        <f>"77"</f>
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>176</v>
       </c>
-      <c r="D16" t="s">
-        <v>248</v>
+      <c r="D17" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" t="str">
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" t="str">
+      <c r="C25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" t="str">
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" t="str">
+      <c r="C27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" t="str">
+      <c r="C28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" t="str">
+      <c r="C29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" t="str">
+      <c r="C31" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C26" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" t="str">
+      <c r="C32" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C27" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" t="str">
+      <c r="C33" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" t="str">
+      <c r="C34" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C29" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" t="str">
+      <c r="C35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" t="str">
+      <c r="C36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" t="str">
+      <c r="C38" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" t="str">
+      <c r="C39" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" t="str">
+      <c r="C40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" t="str">
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" t="str">
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C37" t="s">
-        <v>179</v>
-      </c>
-      <c r="D37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" t="str">
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" t="str">
+        <f>"8888"</f>
+        <v>8888</v>
+      </c>
+      <c r="C45" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" t="str">
+        <f>"9999"</f>
+        <v>9999</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" t="str">
+      <c r="C48" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" t="str">
+      <c r="C49" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C41" t="s">
-        <v>179</v>
-      </c>
-      <c r="D41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" t="str">
-        <f>"6"</f>
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>179</v>
-      </c>
-      <c r="D44" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>208</v>
-      </c>
-      <c r="B46" t="str">
-        <f>"8888"</f>
-        <v>8888</v>
-      </c>
-      <c r="C46" t="s">
-        <v>221</v>
-      </c>
-      <c r="D46" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>208</v>
-      </c>
-      <c r="B47" t="str">
-        <f>"9999"</f>
-        <v>9999</v>
-      </c>
-      <c r="C47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C50" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
-      <c r="C57" s="9"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
-      <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="7"/>
     </row>
@@ -12959,7 +13061,6 @@
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B66" s="5"/>
       <c r="C66" s="7"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
@@ -12972,6 +13073,7 @@
       <c r="C69" s="7"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70" s="5"/>
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
@@ -12979,17 +13081,16 @@
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B72" s="5"/>
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C73" s="7"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74" s="5"/>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B75" s="5"/>
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.35">
@@ -12999,20 +13100,20 @@
       <c r="C77" s="7"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B78" s="5"/>
       <c r="C78" s="7"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B79" s="5"/>
       <c r="C79" s="7"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C81" s="7"/>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B82" s="5"/>
+      <c r="C82" s="7"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B83" s="5"/>
       <c r="C83" s="7"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.35">
@@ -13025,17 +13126,17 @@
       <c r="C86" s="7"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B87" s="5"/>
       <c r="C87" s="7"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B88" s="5"/>
       <c r="C88" s="7"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C90" s="7"/>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B92" s="5"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
@@ -13084,9 +13185,6 @@
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -13279,11 +13377,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13310,7 +13408,7 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -13321,7 +13419,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -13332,7 +13430,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -13343,7 +13441,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -13354,7 +13452,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -13365,10 +13463,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -13376,7 +13474,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -13387,7 +13485,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
@@ -13398,7 +13496,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -13409,10 +13507,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -13420,7 +13518,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -13431,7 +13529,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -13442,7 +13540,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -13453,10 +13551,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -13464,7 +13562,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -13475,7 +13573,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -13486,7 +13584,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -13497,10 +13595,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -13508,7 +13606,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -13519,7 +13617,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -13530,7 +13628,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -13541,10 +13639,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -13552,7 +13650,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>96</v>
@@ -13563,7 +13661,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>54</v>
@@ -13574,7 +13672,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -13585,7 +13683,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>
@@ -13596,7 +13694,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
         <v>46</v>
@@ -13607,7 +13705,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
@@ -13618,7 +13716,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -13630,10 +13728,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -13641,10 +13739,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -13652,10 +13750,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -13663,12 +13761,23 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
       </c>
       <c r="C44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>249</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
+++ b/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98869F89-098A-4D55-A86F-A3CD9A927FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C68EFCB-E446-44B4-AE60-5B5F2A80DE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="259">
   <si>
     <t>setting_name</t>
   </si>
@@ -921,12 +921,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -934,12 +928,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,7 +945,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +986,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1008,13 +1008,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1415,11 +1414,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:XFD215"/>
+  <dimension ref="A1:XFD145"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="C1" zoomScale="66" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1508,7 +1507,7 @@
       </c>
     </row>
     <row r="2" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
+      <c r="A2" s="3"/>
       <c r="B2" t="s">
         <v>37</v>
       </c>
@@ -9751,7 +9750,7 @@
       <c r="XFD3"/>
     </row>
     <row r="4" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -9788,43 +9787,43 @@
       <c r="AG4" s="3"/>
     </row>
     <row r="5" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
     </row>
     <row r="6" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6"/>
@@ -9909,7 +9908,7 @@
       <c r="AG7"/>
     </row>
     <row r="8" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" t="s">
         <v>55</v>
       </c>
@@ -9948,7 +9947,7 @@
       <c r="AG8"/>
     </row>
     <row r="9" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="20"/>
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -9985,7 +9984,7 @@
       <c r="AG9"/>
     </row>
     <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10"/>
+      <c r="A10" s="20"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" t="s">
@@ -10026,7 +10025,7 @@
       <c r="AG10"/>
     </row>
     <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11"/>
+      <c r="A11" s="20"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="s">
@@ -10073,7 +10072,7 @@
       <c r="AG11"/>
     </row>
     <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12"/>
+      <c r="A12" s="20"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="s">
@@ -10118,7 +10117,7 @@
       <c r="AG12"/>
     </row>
     <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13"/>
+      <c r="A13" s="20"/>
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -10157,7 +10156,7 @@
       <c r="AG13"/>
     </row>
     <row r="14" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14"/>
+      <c r="A14" s="20"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="s">
@@ -10204,7 +10203,7 @@
       <c r="AG14"/>
     </row>
     <row r="15" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15"/>
+      <c r="A15" s="20"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15" t="s">
@@ -10251,7 +10250,7 @@
       <c r="AG15"/>
     </row>
     <row r="16" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16"/>
+      <c r="A16" s="20"/>
       <c r="B16" t="s">
         <v>84</v>
       </c>
@@ -10290,7 +10289,7 @@
       <c r="AG16"/>
     </row>
     <row r="17" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17"/>
+      <c r="A17" s="20"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -10325,7 +10324,7 @@
       <c r="AG17"/>
     </row>
     <row r="18" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18"/>
+      <c r="A18" s="20"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18" t="s">
@@ -10370,7 +10369,7 @@
       <c r="AG18"/>
     </row>
     <row r="19" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19"/>
+      <c r="A19" s="20"/>
       <c r="B19" t="s">
         <v>56</v>
       </c>
@@ -10407,7 +10406,7 @@
       <c r="AG19"/>
     </row>
     <row r="20" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20"/>
+      <c r="A20" s="20"/>
       <c r="B20" t="s">
         <v>56</v>
       </c>
@@ -10444,7 +10443,7 @@
       <c r="AG20"/>
     </row>
     <row r="21" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21"/>
+      <c r="A21" s="20"/>
       <c r="B21" t="s">
         <v>38</v>
       </c>
@@ -10481,7 +10480,7 @@
       <c r="AG21"/>
     </row>
     <row r="22" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22"/>
+      <c r="A22" s="21"/>
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -10518,7 +10517,7 @@
       <c r="AG22"/>
     </row>
     <row r="23" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14" t="s">
@@ -10565,7 +10564,7 @@
       <c r="AG23"/>
     </row>
     <row r="24" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="14" t="s">
         <v>84</v>
       </c>
@@ -10604,7 +10603,7 @@
       <c r="AG24"/>
     </row>
     <row r="25" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
@@ -10651,7 +10650,7 @@
       <c r="AG25"/>
     </row>
     <row r="26" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14" t="s">
@@ -10698,7 +10697,7 @@
       <c r="AG26"/>
     </row>
     <row r="27" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="14" t="s">
         <v>84</v>
       </c>
@@ -10737,7 +10736,7 @@
       <c r="AG27"/>
     </row>
     <row r="28" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -10772,7 +10771,7 @@
       <c r="AG28"/>
     </row>
     <row r="29" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14" t="s">
@@ -10817,7 +10816,7 @@
       <c r="AG29"/>
     </row>
     <row r="30" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="14" t="s">
         <v>56</v>
       </c>
@@ -10854,7 +10853,7 @@
       <c r="AG30"/>
     </row>
     <row r="31" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="14" t="s">
         <v>56</v>
       </c>
@@ -10891,7 +10890,7 @@
       <c r="AG31"/>
     </row>
     <row r="32" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="14" t="s">
         <v>38</v>
       </c>
@@ -10928,20 +10927,20 @@
       <c r="AG32"/>
     </row>
     <row r="33" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
@@ -10965,28 +10964,28 @@
       <c r="AG33"/>
     </row>
     <row r="34" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18" t="s">
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="18"/>
+      <c r="L34" s="16"/>
       <c r="M34" t="s">
         <v>243</v>
       </c>
@@ -11012,22 +11011,22 @@
       <c r="AG34"/>
     </row>
     <row r="35" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
@@ -11051,30 +11050,30 @@
       <c r="AG35"/>
     </row>
     <row r="36" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18" t="s">
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="L36" s="18"/>
+      <c r="L36" s="16"/>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
@@ -11098,30 +11097,30 @@
       <c r="AG36"/>
     </row>
     <row r="37" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18" t="s">
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="L37" s="18"/>
+      <c r="L37" s="16"/>
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
@@ -11145,22 +11144,22 @@
       <c r="AG37"/>
     </row>
     <row r="38" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38"/>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
       <c r="M38"/>
       <c r="N38"/>
       <c r="O38"/>
@@ -11184,18 +11183,18 @@
       <c r="AG38"/>
     </row>
     <row r="39" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
       <c r="M39"/>
       <c r="N39"/>
       <c r="O39"/>
@@ -11219,28 +11218,28 @@
       <c r="AG39"/>
     </row>
     <row r="40" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18" t="s">
+      <c r="E40" s="16"/>
+      <c r="F40" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18" t="s">
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="L40" s="18"/>
+      <c r="L40" s="16"/>
       <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
@@ -11264,20 +11263,20 @@
       <c r="AG40"/>
     </row>
     <row r="41" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41"/>
-      <c r="B41" s="18" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
@@ -11301,20 +11300,20 @@
       <c r="AG41"/>
     </row>
     <row r="42" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42"/>
-      <c r="B42" s="18" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
       <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
@@ -11338,20 +11337,20 @@
       <c r="AG42"/>
     </row>
     <row r="43" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43"/>
-      <c r="B43" s="18" t="s">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
       <c r="M43"/>
       <c r="N43"/>
       <c r="O43"/>
@@ -11410,30 +11409,30 @@
       <c r="AG44"/>
     </row>
     <row r="45" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45"/>
-      <c r="B45" s="22" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
       <c r="W45"/>
       <c r="X45"/>
       <c r="Y45"/>
@@ -11447,40 +11446,40 @@
       <c r="AG45"/>
     </row>
     <row r="46" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22" t="s">
+      <c r="A46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22" t="s">
+      <c r="E46" s="19"/>
+      <c r="F46" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H46" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22" t="s">
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22" t="s">
+      <c r="L46" s="19"/>
+      <c r="M46" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="22"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
       <c r="W46"/>
       <c r="X46"/>
       <c r="Y46"/>
@@ -11494,32 +11493,32 @@
       <c r="AG46"/>
     </row>
     <row r="47" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47"/>
-      <c r="B47" s="22" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
       <c r="W47"/>
       <c r="X47"/>
       <c r="Y47"/>
@@ -11533,38 +11532,38 @@
       <c r="AG47"/>
     </row>
     <row r="48" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22" t="s">
+      <c r="A48" s="15"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22" t="s">
+      <c r="E48" s="19"/>
+      <c r="F48" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22" t="s">
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
       <c r="W48"/>
       <c r="X48"/>
       <c r="Y48"/>
@@ -11578,30 +11577,30 @@
       <c r="AG48"/>
     </row>
     <row r="49" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49"/>
-      <c r="B49" s="22" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
       <c r="W49"/>
       <c r="X49"/>
       <c r="Y49"/>
@@ -11615,30 +11614,30 @@
       <c r="AG49"/>
     </row>
     <row r="50" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50"/>
-      <c r="B50" s="22" t="s">
+      <c r="A50" s="15"/>
+      <c r="B50" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
       <c r="W50"/>
       <c r="X50"/>
       <c r="Y50"/>
@@ -11652,290 +11651,277 @@
       <c r="AG50"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A51" s="15"/>
+      <c r="A51" s="22"/>
       <c r="B51" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="20" t="s">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A52" s="22"/>
+      <c r="B52" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53"/>
+      <c r="B53" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D53" s="20" t="s">
+    <row r="54" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54"/>
+      <c r="D54" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G54" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="H53" s="20" t="s">
+      <c r="H54" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="S53" s="20" t="b">
+      <c r="S54" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="20" t="s">
+    <row r="55" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55"/>
+      <c r="D55" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E55" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F55" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G55" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="H54" s="20" t="s">
+      <c r="H55" s="17" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D55" s="20" t="s">
+    <row r="56" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56"/>
+      <c r="D56" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E56" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F56" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G55" s="20" t="s">
+      <c r="G56" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="H55" s="20" t="s">
+      <c r="H56" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="20" t="s">
+    <row r="57" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57"/>
+      <c r="D57" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E57" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F57" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G56" s="20" t="s">
+      <c r="G57" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="H56" s="20" t="s">
+      <c r="H57" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="K56" s="20" t="s">
+      <c r="K57" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="T56" s="21" t="s">
+      <c r="T57" s="18" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="20" t="s">
+    <row r="58" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58"/>
+      <c r="D58" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E58" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F58" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="S57" s="20" t="b">
+      <c r="S58" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="20" t="s">
+    <row r="59" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59"/>
+      <c r="B59" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C59" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="20" t="s">
+    <row r="60" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60"/>
+      <c r="B60" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C60" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D60" s="20" t="s">
+    <row r="61" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61"/>
+      <c r="D61" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="20" t="s">
+      <c r="F61" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="G60" s="20" t="s">
+      <c r="G61" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="H60" s="20" t="s">
+      <c r="H61" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="K60" s="20" t="s">
+      <c r="K61" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="20" t="s">
+    <row r="62" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62"/>
+      <c r="B62" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="20" t="s">
+    <row r="63" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63"/>
+      <c r="D63" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F63" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="I62" s="20" t="s">
+      <c r="I63" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="S62" s="20" t="b">
+      <c r="S63" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="20" t="s">
+    <row r="64" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64"/>
+      <c r="B64" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="20" t="s">
+    <row r="65" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65"/>
+      <c r="B65" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B66" t="s">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="D67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>149</v>
-      </c>
-      <c r="H67" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D68" t="s">
-        <v>45</v>
-      </c>
-      <c r="F68" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H68" t="s">
-        <v>241</v>
-      </c>
-      <c r="K68" t="s">
-        <v>225</v>
-      </c>
-      <c r="M68" t="s">
-        <v>243</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D69" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H69" t="s">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="K69" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="M69" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D70" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" t="s">
+        <v>90</v>
+      </c>
+      <c r="F70" t="s">
+        <v>110</v>
+      </c>
+      <c r="G70" t="s">
+        <v>151</v>
+      </c>
+      <c r="H70" t="s">
+        <v>151</v>
+      </c>
+      <c r="K70" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D71" t="s">
         <v>96</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>152</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B71" t="s">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B73" t="s">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="74" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74" t="s">
-        <v>35</v>
-      </c>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74" t="s">
-        <v>218</v>
-      </c>
-      <c r="H74" t="s">
-        <v>218</v>
-      </c>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
-      <c r="U74"/>
-      <c r="V74"/>
-      <c r="W74"/>
-      <c r="X74"/>
-      <c r="Y74"/>
-      <c r="Z74"/>
-      <c r="AA74"/>
-      <c r="AB74"/>
-      <c r="AC74"/>
-      <c r="AD74"/>
-      <c r="AE74"/>
-      <c r="AF74"/>
-      <c r="AG74"/>
     </row>
     <row r="75" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
-      <c r="D75"/>
+      <c r="D75" t="s">
+        <v>35</v>
+      </c>
       <c r="E75"/>
       <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
+      <c r="G75" t="s">
+        <v>218</v>
+      </c>
+      <c r="H75" t="s">
+        <v>218</v>
+      </c>
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75"/>
@@ -11966,30 +11952,16 @@
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
-      <c r="D76" t="s">
-        <v>45</v>
-      </c>
+      <c r="D76"/>
       <c r="E76"/>
-      <c r="F76" t="s">
-        <v>128</v>
-      </c>
-      <c r="G76" t="s">
-        <v>126</v>
-      </c>
-      <c r="H76" t="s">
-        <v>126</v>
-      </c>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
-      <c r="K76" t="s">
-        <v>132</v>
-      </c>
-      <c r="L76" t="s">
-        <v>199</v>
-      </c>
-      <c r="M76" t="s">
-        <v>198</v>
-      </c>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
@@ -12011,21 +11983,27 @@
       <c r="AF76"/>
       <c r="AG76"/>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
       <c r="D77" t="s">
         <v>45</v>
       </c>
+      <c r="E77"/>
       <c r="F77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H77" t="s">
-        <v>127</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="I77"/>
+      <c r="J77"/>
       <c r="K77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L77" t="s">
         <v>199</v>
@@ -12033,164 +12011,161 @@
       <c r="M77" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="79" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79"/>
-      <c r="B79" t="s">
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+      <c r="AG77"/>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D78" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" t="s">
+        <v>129</v>
+      </c>
+      <c r="G78" t="s">
+        <v>127</v>
+      </c>
+      <c r="H78" t="s">
+        <v>127</v>
+      </c>
+      <c r="K78" t="s">
+        <v>133</v>
+      </c>
+      <c r="L78" t="s">
+        <v>199</v>
+      </c>
+      <c r="M78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80"/>
+      <c r="B80" t="s">
         <v>38</v>
       </c>
-      <c r="N79"/>
-      <c r="O79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
-      <c r="R79"/>
-      <c r="S79"/>
-      <c r="T79"/>
-      <c r="U79"/>
-      <c r="V79"/>
-      <c r="W79"/>
-      <c r="X79"/>
-      <c r="Y79"/>
-      <c r="Z79"/>
-      <c r="AA79"/>
-      <c r="AB79"/>
-      <c r="AC79"/>
-      <c r="AD79"/>
-      <c r="AE79"/>
-      <c r="AF79"/>
-      <c r="AG79"/>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B80" t="s">
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+      <c r="AG80"/>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="D81" t="s">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D82" t="s">
         <v>54</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>169</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G82" t="s">
         <v>153</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H82" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B82" t="s">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="N83"/>
-      <c r="O83"/>
-      <c r="P83"/>
-      <c r="Q83"/>
-      <c r="R83"/>
-      <c r="S83"/>
-      <c r="T83"/>
-      <c r="U83"/>
-      <c r="V83"/>
-      <c r="W83"/>
-      <c r="X83"/>
-      <c r="Y83"/>
-      <c r="Z83"/>
-      <c r="AA83"/>
-      <c r="AB83"/>
-      <c r="AC83"/>
-      <c r="AD83"/>
-      <c r="AE83"/>
-      <c r="AF83"/>
-      <c r="AG83"/>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A84" s="19"/>
-      <c r="B84" s="14" t="s">
+    <row r="84" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84"/>
+      <c r="B84" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="17"/>
-      <c r="T84" s="17"/>
-      <c r="U84" s="17"/>
-      <c r="V84" s="17"/>
-      <c r="W84" s="17"/>
-      <c r="X84" s="17"/>
-      <c r="Y84" s="17"/>
-      <c r="Z84" s="17"/>
-      <c r="AA84" s="17"/>
-      <c r="AB84" s="17"/>
-      <c r="AC84" s="17"/>
-      <c r="AD84" s="17"/>
-      <c r="AE84" s="17"/>
-      <c r="AF84" s="17"/>
-      <c r="AG84" s="17"/>
-    </row>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="J141" s="3"/>
-      <c r="K141" s="3"/>
-      <c r="L141" s="3"/>
-      <c r="M141" s="3"/>
-      <c r="N141" s="3"/>
-      <c r="O141" s="3"/>
-      <c r="P141" s="3"/>
-      <c r="Q141" s="3"/>
-      <c r="R141" s="11"/>
-      <c r="S141" s="3"/>
-      <c r="T141" s="3"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+      <c r="AE84"/>
+      <c r="AF84"/>
+      <c r="AG84"/>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B85" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="15"/>
+      <c r="U85" s="15"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="15"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="15"/>
+      <c r="AA85" s="15"/>
+      <c r="AB85" s="15"/>
+      <c r="AC85" s="15"/>
+      <c r="AD85" s="15"/>
+      <c r="AE85" s="15"/>
+      <c r="AF85" s="15"/>
+      <c r="AG85" s="15"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
@@ -12210,9 +12185,6 @@
     <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
@@ -12243,77 +12215,24 @@
       <c r="S144" s="3"/>
       <c r="T144" s="3"/>
     </row>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="204" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="205" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="206" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="207" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="208" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
+      <c r="P145" s="3"/>
+      <c r="Q145" s="3"/>
+      <c r="R145" s="11"/>
+      <c r="S145" s="3"/>
+      <c r="T145" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12326,7 +12245,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
+++ b/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C68EFCB-E446-44B4-AE60-5B5F2A80DE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8753313F-89E9-4DC4-830F-C7AC0246171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="271">
   <si>
     <t>setting_name</t>
   </si>
@@ -389,36 +389,24 @@
     <t>OOP_A_MATQ</t>
   </si>
   <si>
-    <t>data("OOP_A_MATQ") &gt;0</t>
-  </si>
-  <si>
     <t>OOP_A_MATT</t>
   </si>
   <si>
     <t>OOP_A_DIAQ</t>
   </si>
   <si>
-    <t>data("OOP_A_DIAQ") &gt;0</t>
-  </si>
-  <si>
     <t>OOP_A_DIAT</t>
   </si>
   <si>
     <t>OOP_A_MEDQ</t>
   </si>
   <si>
-    <t>data("OOP_A_MEDQ") &gt;0</t>
-  </si>
-  <si>
     <t>OOP_A_MEDT</t>
   </si>
   <si>
     <t>OOP_A_OUTQ</t>
   </si>
   <si>
-    <t>data("OOP_A_OUTQ") &gt;0</t>
-  </si>
-  <si>
     <t>OOP_A_OUTT</t>
   </si>
   <si>
@@ -485,18 +473,12 @@
     <t>Outros medicametos?</t>
   </si>
   <si>
-    <t>Other_expenses</t>
-  </si>
-  <si>
     <t>Which other expenses</t>
   </si>
   <si>
     <t>Quais outros despesas?</t>
   </si>
   <si>
-    <t>Transporte</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quanto pagou pelo transporte de/para o estabelecimento de saúde (ida e volta)? </t>
   </si>
   <si>
@@ -581,9 +563,6 @@
     <t>Luvas</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Ecografia</t>
   </si>
   <si>
@@ -605,36 +584,6 @@
     <t>Vitaminas</t>
   </si>
   <si>
-    <t>Bed</t>
-  </si>
-  <si>
-    <t>Cama</t>
-  </si>
-  <si>
-    <t>Cleaning</t>
-  </si>
-  <si>
-    <t>Limpeza</t>
-  </si>
-  <si>
-    <t>data("OOP_A_MATQ") == 0 || data("OOP_A_MATT_SEL") != null || data("OOP_ANC") != "1"</t>
-  </si>
-  <si>
-    <t>data("OOP_A_MATQ") == 0 || data("OOP_A_MATT_OU") != null || data("OOP_ANC") != "1"</t>
-  </si>
-  <si>
-    <t>data("OOP_A_DIAQ") == 0 || data("OOP_A_DIAT_SEL") != null || data("OOP_ANC") != "1"</t>
-  </si>
-  <si>
-    <t>data("OOP_A_DIAQ") == 0 || data("OOP_A_DIAT_OU") != null || data("OOP_ANC") != "1"</t>
-  </si>
-  <si>
-    <t>data("OOP_A_MEDQ") == 0 || data("OOP_A_MEDT_SEL") != null || data("OOP_ANC") != "1"</t>
-  </si>
-  <si>
-    <t>data("OOP_A_MEDQ") == 0 || data("OOP_A_MEDT_OU") != null || data("OOP_ANC") != "1"</t>
-  </si>
-  <si>
     <t>data("OOP_ANC") != null || data("ANC")!="1"</t>
   </si>
   <si>
@@ -722,12 +671,6 @@
     <t>Nemhuma destes</t>
   </si>
   <si>
-    <t>data("OOP_A_TRAM")!=null ||data("OOP_A_TRAM")==0</t>
-  </si>
-  <si>
-    <t>data("OOP_A_TRAM_OU")!=null ||data("OOP_A_TRAM")==0</t>
-  </si>
-  <si>
     <t>Vacina TT</t>
   </si>
   <si>
@@ -776,15 +719,9 @@
     <t>Observações</t>
   </si>
   <si>
-    <t>Indique: 33 se não sabe; 77 se recusou-se a responder</t>
-  </si>
-  <si>
     <t xml:space="preserve">Todos os meios de transporte estão incluídos acima </t>
   </si>
   <si>
-    <t>data("OOP_A_OUTT") != null || data("OOP_A_OUTQ") ==0|| data("OOP_ANC") != "1"</t>
-  </si>
-  <si>
     <t>Place</t>
   </si>
   <si>
@@ -822,6 +759,105 @@
   </si>
   <si>
     <t>Carro de Transporte</t>
+  </si>
+  <si>
+    <t>Desinfectant</t>
+  </si>
+  <si>
+    <t>Lixivia</t>
+  </si>
+  <si>
+    <t>Bleach</t>
+  </si>
+  <si>
+    <t>Soap</t>
+  </si>
+  <si>
+    <t>Desinfetantes</t>
+  </si>
+  <si>
+    <t>Sabao</t>
+  </si>
+  <si>
+    <t>Feces test</t>
+  </si>
+  <si>
+    <t>Análises de fezes</t>
+  </si>
+  <si>
+    <t>was 6 on  20230819</t>
+  </si>
+  <si>
+    <t>Paracetamol</t>
+  </si>
+  <si>
+    <t>Anti-fungal</t>
+  </si>
+  <si>
+    <t>Anti-fungus</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MATQ") &gt;0 &amp;&amp; data("OOP_A_MATQ") !=88</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MATQ") == 0 || data("OOP_A_MATT_SEL") != null || data("OOP_ANC") != "1" || data("OOP_A_MATQ") ==88</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MATQ") == 0 || data("OOP_A_MATT_OU") != null || data("OOP_ANC") != "1" ||data("OOP_A_MATQ") ==88</t>
+  </si>
+  <si>
+    <t>Indique: 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi usado nenhuma materiais</t>
+  </si>
+  <si>
+    <t>Indique: 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder</t>
+  </si>
+  <si>
+    <t>Indique: 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi feito nenhuma analises/exame</t>
+  </si>
+  <si>
+    <t>data("OOP_A_DIAQ") == 0 || data("OOP_A_DIAT_SEL") != null || data("OOP_ANC") != "1" || data("OOP_A_DIAQ")==88</t>
+  </si>
+  <si>
+    <t>data("OOP_A_DIAQ") == 0 || data("OOP_A_DIAT_OU") != null || data("OOP_ANC") != "1" || data("OOP_A_DIAQ")==88</t>
+  </si>
+  <si>
+    <t>Indique: 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao comprou medicamentos</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MEDQ") &gt;0 || data("OOP_A_MEDQ") !=88</t>
+  </si>
+  <si>
+    <t>data("OOP_A_DIAQ") &gt;0 || data("OOP_A_DIAQ")!=88</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MEDQ") == 0 || data("OOP_A_MEDT_SEL") != null || data("OOP_ANC") != "1" || data("OOP_A_MEDQ") ==88</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MEDQ") == 0 || data("OOP_A_MEDT_OU") != null || data("OOP_ANC") != "1" || data("OOP_A_MEDQ") ==88</t>
+  </si>
+  <si>
+    <t>data("OOP_A_OUTQ") &gt;0 || data("OOP_A_OUTQ") !=88</t>
+  </si>
+  <si>
+    <t>data("OOP_A_OUTT") != null || data("OOP_A_OUTQ") ==0|| data("OOP_ANC") != "1"  || data("OOP_A_OUTQ") ==88</t>
+  </si>
+  <si>
+    <t>data("OOP_A_TRAQ")!=null ||data("ANC")=="2"</t>
+  </si>
+  <si>
+    <t>Indique: 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao tinha outros despesas</t>
+  </si>
+  <si>
+    <t>Despesas de transporte de mulher gravida</t>
+  </si>
+  <si>
+    <t>data("OOP_A_TRAM")!=null ||data("ANC")=="2" || data("OOP_A_TRAM")==77</t>
+  </si>
+  <si>
+    <t>data("OOP_A_TRAM_OU")!=null ||data("ANC")=="2" || data("OOP_A_TRAM")==77</t>
+  </si>
+  <si>
+    <t>Dont know</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1359,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1367,10 +1403,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1416,9 +1452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:XFD145"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="66" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
+    <sheetView topLeftCell="B1" zoomScale="66" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1558,7 +1594,7 @@
         <v>111</v>
       </c>
       <c r="H3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="J3"/>
       <c r="L3"/>
@@ -9874,15 +9910,15 @@
         <v>103</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -10044,11 +10080,11 @@
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L11"/>
       <c r="M11" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -10086,15 +10122,17 @@
         <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L12"/>
-      <c r="M12"/>
+      <c r="M12" t="s">
+        <v>253</v>
+      </c>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
@@ -10122,7 +10160,7 @@
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -10160,16 +10198,16 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H14" t="s">
         <v>86</v>
@@ -10177,7 +10215,7 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
@@ -10213,18 +10251,18 @@
         <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
@@ -10255,7 +10293,7 @@
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -10332,7 +10370,7 @@
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
         <v>85</v>
@@ -10343,7 +10381,7 @@
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -10525,22 +10563,22 @@
       </c>
       <c r="E23" s="14"/>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" t="s">
         <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="N23"/>
       <c r="O23"/>
@@ -10569,7 +10607,7 @@
         <v>84</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -10607,24 +10645,24 @@
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>138</v>
-      </c>
       <c r="F25" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25"/>
@@ -10660,18 +10698,18 @@
         <v>47</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26"/>
@@ -10702,7 +10740,7 @@
         <v>84</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -10779,18 +10817,18 @@
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29"/>
@@ -10972,22 +11010,22 @@
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L34" s="16"/>
       <c r="M34" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -11016,7 +11054,7 @@
         <v>84</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>120</v>
+        <v>259</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -11054,16 +11092,16 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>88</v>
@@ -11071,7 +11109,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="L36" s="16"/>
       <c r="M36"/>
@@ -11107,18 +11145,18 @@
         <v>47</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="L37" s="16"/>
       <c r="M37"/>
@@ -11149,7 +11187,7 @@
         <v>84</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -11226,10 +11264,10 @@
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H40" s="16" t="s">
         <v>88</v>
@@ -11237,7 +11275,7 @@
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L40" s="16"/>
       <c r="M40"/>
@@ -11454,22 +11492,22 @@
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G46" s="19" t="s">
         <v>89</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
       <c r="K46" s="19" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L46" s="19"/>
-      <c r="M46" s="19" t="s">
-        <v>243</v>
+      <c r="M46" t="s">
+        <v>266</v>
       </c>
       <c r="N46" s="19"/>
       <c r="O46" s="19"/>
@@ -11498,7 +11536,7 @@
         <v>84</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -11540,18 +11578,18 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
       <c r="K48" s="19" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
@@ -11677,10 +11715,10 @@
         <v>35</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="S54" s="17" t="b">
         <v>1</v>
@@ -11692,40 +11730,40 @@
         <v>96</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56"/>
       <c r="D56" s="17" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>71</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57"/>
       <c r="D57" s="17" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>72</v>
@@ -11734,28 +11772,28 @@
         <v>105</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="T57" s="18" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58"/>
       <c r="D58" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="S58" s="17" t="b">
         <v>1</v>
@@ -11767,7 +11805,7 @@
         <v>55</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -11776,7 +11814,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -11785,16 +11823,16 @@
         <v>54</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -11806,13 +11844,13 @@
     <row r="63" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63"/>
       <c r="D63" s="17" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>105</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="S63" s="17" t="b">
         <v>1</v>
@@ -11840,10 +11878,10 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="H68" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
@@ -11854,21 +11892,21 @@
         <v>109</v>
       </c>
       <c r="G69" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H69" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="K69" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="M69" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D70" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E70" t="s">
         <v>90</v>
@@ -11877,13 +11915,13 @@
         <v>110</v>
       </c>
       <c r="G70" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H70" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K70" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.35">
@@ -11891,10 +11929,13 @@
         <v>96</v>
       </c>
       <c r="E71" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F71" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="K71" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.35">
@@ -11917,10 +11958,10 @@
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="H75" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="I75"/>
       <c r="J75"/>
@@ -11992,24 +12033,24 @@
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G77" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H77" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L77" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="M77" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="N77"/>
       <c r="O77"/>
@@ -12037,22 +12078,22 @@
         <v>45</v>
       </c>
       <c r="F78" t="s">
+        <v>125</v>
+      </c>
+      <c r="G78" t="s">
+        <v>123</v>
+      </c>
+      <c r="H78" t="s">
+        <v>123</v>
+      </c>
+      <c r="K78" t="s">
         <v>129</v>
       </c>
-      <c r="G78" t="s">
-        <v>127</v>
-      </c>
-      <c r="H78" t="s">
-        <v>127</v>
-      </c>
-      <c r="K78" t="s">
-        <v>133</v>
-      </c>
       <c r="L78" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="M78" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -12091,13 +12132,13 @@
         <v>54</v>
       </c>
       <c r="F82" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G82" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H82" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.35">
@@ -12167,6 +12208,7 @@
       <c r="AF85" s="15"/>
       <c r="AG85" s="15"/>
     </row>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="C142" s="3"/>
@@ -12241,11 +12283,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12357,7 +12399,7 @@
         <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -12402,7 +12444,7 @@
         <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -12444,497 +12486,459 @@
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B15" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B17" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B18" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="str">
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" t="str">
+      <c r="C26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D35" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" t="str">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" t="str">
+      <c r="C36" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" t="str">
-        <f>"6"</f>
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="C37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>138</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B38" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" t="str">
+        <f>"66"</f>
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" t="str">
+        <f>"8888"</f>
+        <v>8888</v>
+      </c>
+      <c r="C44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" t="str">
+        <f>"9999"</f>
+        <v>9999</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>225</v>
+      </c>
+      <c r="B47" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C24" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" t="str">
+      <c r="C47" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" t="str">
+      <c r="C48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>225</v>
+      </c>
+      <c r="B49" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C26" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" t="str">
-        <f>"6"</f>
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>142</v>
-      </c>
-      <c r="B36" t="str">
-        <f>"6"</f>
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>256</v>
-      </c>
-      <c r="D36" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" t="str">
-        <f>"6"</f>
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>207</v>
-      </c>
-      <c r="B45" t="str">
-        <f>"8888"</f>
-        <v>8888</v>
-      </c>
-      <c r="C45" t="s">
-        <v>219</v>
-      </c>
-      <c r="D45" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>207</v>
-      </c>
-      <c r="B46" t="str">
-        <f>"9999"</f>
-        <v>9999</v>
-      </c>
-      <c r="C46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>246</v>
-      </c>
-      <c r="B48" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D48" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>246</v>
-      </c>
-      <c r="B49" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>252</v>
+      <c r="C49" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="D49" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>246</v>
-      </c>
-      <c r="B50" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D50" t="s">
-        <v>257</v>
-      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
@@ -12942,7 +12946,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
-      <c r="C56" s="9"/>
+      <c r="C56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
@@ -12950,10 +12954,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
-      <c r="C58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
+      <c r="C59" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
@@ -12976,7 +12980,6 @@
       <c r="C64" s="7"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B65" s="5"/>
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
@@ -12989,6 +12992,7 @@
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B69" s="5"/>
       <c r="C69" s="7"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
@@ -12996,17 +13000,16 @@
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B71" s="5"/>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B73" s="5"/>
       <c r="C73" s="7"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B74" s="5"/>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
@@ -13016,20 +13019,20 @@
       <c r="C76" s="7"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B77" s="5"/>
       <c r="C77" s="7"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B78" s="5"/>
       <c r="C78" s="7"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C80" s="7"/>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B81" s="5"/>
+      <c r="C81" s="7"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B82" s="5"/>
       <c r="C82" s="7"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
@@ -13042,17 +13045,17 @@
       <c r="C85" s="7"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B86" s="5"/>
       <c r="C86" s="7"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B87" s="5"/>
       <c r="C87" s="7"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C89" s="7"/>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B91" s="5"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
@@ -13101,9 +13104,6 @@
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -13371,7 +13371,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -13382,10 +13382,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -13393,7 +13393,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -13404,7 +13404,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
@@ -13415,7 +13415,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -13426,10 +13426,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -13437,7 +13437,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -13448,7 +13448,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -13459,7 +13459,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -13470,10 +13470,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -13481,7 +13481,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -13492,7 +13492,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -13503,7 +13503,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -13514,10 +13514,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -13525,7 +13525,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -13536,7 +13536,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -13561,7 +13561,7 @@
         <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -13569,7 +13569,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>96</v>
@@ -13624,7 +13624,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
@@ -13635,7 +13635,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -13647,10 +13647,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -13661,7 +13661,7 @@
         <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -13669,10 +13669,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -13680,7 +13680,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
@@ -13691,7 +13691,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>96</v>

--- a/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
+++ b/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8753313F-89E9-4DC4-830F-C7AC0246171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDBE13E-61B1-4BF1-9910-BA8F7DE4AE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="279">
   <si>
     <t>setting_name</t>
   </si>
@@ -590,9 +590,6 @@
     <t>Quanto pagou pelos materiais?</t>
   </si>
   <si>
-    <t>Se não obtou cartao durante est gravidez, indicar 88, se não sabe o preco indicar 33</t>
-  </si>
-  <si>
     <t>Se não obtou cartao durante este gravidez, indicar 88, se não sabe o preco indicar 33</t>
   </si>
   <si>
@@ -611,9 +608,6 @@
     <t>Região</t>
   </si>
   <si>
-    <t>data("LOCPARCODE") != null || (data("LOCPAR") != 2 &amp;&amp; data("LOCPAR") != 3)</t>
-  </si>
-  <si>
     <t>choice_item.reg === data("regpar")</t>
   </si>
   <si>
@@ -797,57 +791,30 @@
     <t>Anti-fungus</t>
   </si>
   <si>
-    <t>data("OOP_A_MATQ") &gt;0 &amp;&amp; data("OOP_A_MATQ") !=88</t>
-  </si>
-  <si>
     <t>data("OOP_A_MATQ") == 0 || data("OOP_A_MATT_SEL") != null || data("OOP_ANC") != "1" || data("OOP_A_MATQ") ==88</t>
   </si>
   <si>
     <t>data("OOP_A_MATQ") == 0 || data("OOP_A_MATT_OU") != null || data("OOP_ANC") != "1" ||data("OOP_A_MATQ") ==88</t>
   </si>
   <si>
-    <t>Indique: 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi usado nenhuma materiais</t>
-  </si>
-  <si>
-    <t>Indique: 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder</t>
-  </si>
-  <si>
-    <t>Indique: 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi feito nenhuma analises/exame</t>
-  </si>
-  <si>
     <t>data("OOP_A_DIAQ") == 0 || data("OOP_A_DIAT_SEL") != null || data("OOP_ANC") != "1" || data("OOP_A_DIAQ")==88</t>
   </si>
   <si>
     <t>data("OOP_A_DIAQ") == 0 || data("OOP_A_DIAT_OU") != null || data("OOP_ANC") != "1" || data("OOP_A_DIAQ")==88</t>
   </si>
   <si>
-    <t>Indique: 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao comprou medicamentos</t>
-  </si>
-  <si>
-    <t>data("OOP_A_MEDQ") &gt;0 || data("OOP_A_MEDQ") !=88</t>
-  </si>
-  <si>
-    <t>data("OOP_A_DIAQ") &gt;0 || data("OOP_A_DIAQ")!=88</t>
-  </si>
-  <si>
     <t>data("OOP_A_MEDQ") == 0 || data("OOP_A_MEDT_SEL") != null || data("OOP_ANC") != "1" || data("OOP_A_MEDQ") ==88</t>
   </si>
   <si>
     <t>data("OOP_A_MEDQ") == 0 || data("OOP_A_MEDT_OU") != null || data("OOP_ANC") != "1" || data("OOP_A_MEDQ") ==88</t>
   </si>
   <si>
-    <t>data("OOP_A_OUTQ") &gt;0 || data("OOP_A_OUTQ") !=88</t>
-  </si>
-  <si>
     <t>data("OOP_A_OUTT") != null || data("OOP_A_OUTQ") ==0|| data("OOP_ANC") != "1"  || data("OOP_A_OUTQ") ==88</t>
   </si>
   <si>
     <t>data("OOP_A_TRAQ")!=null ||data("ANC")=="2"</t>
   </si>
   <si>
-    <t>Indique: 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao tinha outros despesas</t>
-  </si>
-  <si>
     <t>Despesas de transporte de mulher gravida</t>
   </si>
   <si>
@@ -858,6 +825,63 @@
   </si>
   <si>
     <t>Dont know</t>
+  </si>
+  <si>
+    <t>TDR</t>
+  </si>
+  <si>
+    <t>TDR (paludismo)</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi usado nenhuma materiais</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi feito nenhuma analises/exame</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi receitada medicamentos</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao tinha outros despesas</t>
+  </si>
+  <si>
+    <t>Private car</t>
+  </si>
+  <si>
+    <t>Carro Particular</t>
+  </si>
+  <si>
+    <t>data("ANCPLACE")!=null || data("ANC")!="1"</t>
+  </si>
+  <si>
+    <t>data("OOP_A_DIAQ") &gt;0 &amp;&amp;  data("OOP_A_DIAQ")!=88 &amp;&amp;  data("OOP_A_DIAQ")!=77</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MATQ") &gt;0 &amp;&amp; data("OOP_A_MATQ") !=88 &amp;&amp; data("OOP_A_MATQ") !=77</t>
+  </si>
+  <si>
+    <t>data("OOP_A_MEDQ") &gt;0 &amp;&amp; data("OOP_A_MEDQ") !=88 &amp;&amp; data("OOP_A_MEDQ") !=77</t>
+  </si>
+  <si>
+    <t>data("OOP_A_OUTQ") &gt;0 &amp;&amp; data("OOP_A_OUTQ") !=88  &amp;&amp; data("OOP_A_OUTQ") !=77</t>
+  </si>
+  <si>
+    <t>Indicar: &lt;br&gt; 88 se não obtou cartao durante este gravidez, &lt;br&gt; 33 se não sabe o preco indicar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indique: &lt;br&gt; 88 se não obtou cartao durante est gravidez, &lt;br&gt; 77 se recusou-se a responder, &lt;br&gt; 33 se não sabe o preco </t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 88 se não obtou cartao durante este gravidez, &lt;br&gt; 77 se recusou-se a responder, &lt;br&gt; 33 se não sabe o preco indicar</t>
+  </si>
+  <si>
+    <t>data("ANC")!=null</t>
+  </si>
+  <si>
+    <t>(data("LOCPARCODE") != null &amp;&amp; data("LOCPARCODE") != "8888") || (data("ANC") != "1" || data("LOCPAROU") != null)</t>
   </si>
 </sst>
 </file>
@@ -936,7 +960,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -997,6 +1021,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1022,7 +1052,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1052,6 +1082,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1452,9 +1484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:XFD145"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="66" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K71" sqref="K71"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="73" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1594,9 +1626,12 @@
         <v>111</v>
       </c>
       <c r="H3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J3"/>
+      <c r="K3" s="24" t="s">
+        <v>277</v>
+      </c>
       <c r="L3"/>
       <c r="N3"/>
       <c r="P3"/>
@@ -9910,10 +9945,10 @@
         <v>103</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -10084,7 +10119,7 @@
       </c>
       <c r="L11"/>
       <c r="M11" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -10131,7 +10166,7 @@
       </c>
       <c r="L12"/>
       <c r="M12" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -10160,7 +10195,7 @@
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -10215,7 +10250,7 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
@@ -10257,12 +10292,12 @@
         <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
@@ -10569,7 +10604,7 @@
         <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -10578,7 +10613,7 @@
       </c>
       <c r="L23" s="14"/>
       <c r="M23" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="N23"/>
       <c r="O23"/>
@@ -10607,7 +10642,7 @@
         <v>84</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -10657,12 +10692,12 @@
         <v>135</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25"/>
@@ -10704,12 +10739,12 @@
         <v>136</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26"/>
@@ -10823,7 +10858,7 @@
         <v>135</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -11016,7 +11051,7 @@
         <v>137</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
@@ -11025,7 +11060,7 @@
       </c>
       <c r="L34" s="16"/>
       <c r="M34" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -11054,7 +11089,7 @@
         <v>84</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -11109,7 +11144,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="L36" s="16"/>
       <c r="M36"/>
@@ -11156,7 +11191,7 @@
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="L37" s="16"/>
       <c r="M37"/>
@@ -11498,7 +11533,7 @@
         <v>89</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
@@ -11536,7 +11571,7 @@
         <v>84</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -11589,7 +11624,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
       <c r="K48" s="19" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
@@ -11715,10 +11750,10 @@
         <v>35</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S54" s="17" t="b">
         <v>1</v>
@@ -11730,40 +11765,43 @@
         <v>96</v>
       </c>
       <c r="E55" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="H55" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="F55" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>227</v>
+      <c r="K55" s="17" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56"/>
       <c r="D56" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>71</v>
       </c>
       <c r="F56" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="G56" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="H56" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57"/>
       <c r="D57" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>72</v>
@@ -11772,16 +11810,16 @@
         <v>105</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="K57" s="17" t="s">
-        <v>188</v>
+        <v>219</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>278</v>
       </c>
       <c r="T57" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -11790,10 +11828,10 @@
         <v>130</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="S58" s="17" t="b">
         <v>1</v>
@@ -11805,7 +11843,7 @@
         <v>55</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -11814,7 +11852,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -11823,16 +11861,16 @@
         <v>54</v>
       </c>
       <c r="F61" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="H61" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="G61" s="17" t="s">
+      <c r="K61" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="K61" s="17" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -11844,13 +11882,13 @@
     <row r="63" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63"/>
       <c r="D63" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>105</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S63" s="17" t="b">
         <v>1</v>
@@ -11878,10 +11916,10 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H68" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
@@ -11895,13 +11933,13 @@
         <v>144</v>
       </c>
       <c r="H69" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K69" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="M69" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.35">
@@ -11921,7 +11959,7 @@
         <v>145</v>
       </c>
       <c r="K70" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.35">
@@ -11935,7 +11973,7 @@
         <v>162</v>
       </c>
       <c r="K71" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.35">
@@ -11958,10 +11996,10 @@
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H75" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I75"/>
       <c r="J75"/>
@@ -12047,10 +12085,10 @@
         <v>128</v>
       </c>
       <c r="L77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M77" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="N77"/>
       <c r="O77"/>
@@ -12090,10 +12128,10 @@
         <v>129</v>
       </c>
       <c r="L78" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="M78" t="s">
-        <v>181</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -12138,7 +12176,7 @@
         <v>147</v>
       </c>
       <c r="H82" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.35">
@@ -12283,11 +12321,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12399,7 +12437,7 @@
         <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -12444,7 +12482,7 @@
         <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -12452,14 +12490,14 @@
         <v>90</v>
       </c>
       <c r="B12" t="str">
-        <f>"33"</f>
-        <v>33</v>
+        <f>"7"</f>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>267</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -12467,14 +12505,14 @@
         <v>90</v>
       </c>
       <c r="B13" t="str">
-        <f>"66"</f>
-        <v>66</v>
+        <f>"33"</f>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -12482,44 +12520,44 @@
         <v>90</v>
       </c>
       <c r="B14" t="str">
+        <f>"66"</f>
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
-      <c r="C14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>146</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>169</v>
       </c>
-      <c r="D15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" t="s">
-        <v>171</v>
+      <c r="D16" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -12527,14 +12565,14 @@
         <v>131</v>
       </c>
       <c r="B18" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -12542,14 +12580,14 @@
         <v>131</v>
       </c>
       <c r="B19" t="str">
-        <f>"8"</f>
-        <v>8</v>
+        <f>"7"</f>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" t="s">
         <v>240</v>
-      </c>
-      <c r="D19" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -12557,14 +12595,14 @@
         <v>131</v>
       </c>
       <c r="B20" t="str">
-        <f>"9"</f>
-        <v>9</v>
+        <f>"8"</f>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -12572,14 +12610,14 @@
         <v>131</v>
       </c>
       <c r="B21" t="str">
-        <f>"33"</f>
-        <v>33</v>
+        <f>"9"</f>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -12587,29 +12625,29 @@
         <v>131</v>
       </c>
       <c r="B22" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
-      <c r="C22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" t="s">
-        <v>172</v>
+      <c r="C23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -12617,14 +12655,14 @@
         <v>134</v>
       </c>
       <c r="B26" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -12632,14 +12670,14 @@
         <v>134</v>
       </c>
       <c r="B27" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -12647,14 +12685,14 @@
         <v>134</v>
       </c>
       <c r="B28" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -12662,14 +12700,14 @@
         <v>134</v>
       </c>
       <c r="B29" t="str">
-        <f>"33"</f>
-        <v>33</v>
+        <f>"7"</f>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -12677,64 +12715,64 @@
         <v>134</v>
       </c>
       <c r="B30" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
-      <c r="C30" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>176</v>
+      <c r="C32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>177</v>
-      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>138</v>
       </c>
       <c r="B35" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -12742,14 +12780,14 @@
         <v>138</v>
       </c>
       <c r="B36" t="str">
-        <f>"4"</f>
-        <v>4</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -12757,14 +12795,14 @@
         <v>138</v>
       </c>
       <c r="B37" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>208</v>
-      </c>
-      <c r="D37" t="s">
-        <v>208</v>
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -12772,14 +12810,14 @@
         <v>138</v>
       </c>
       <c r="B38" t="str">
-        <f>"7"</f>
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>247</v>
-      </c>
-      <c r="D38" t="s">
-        <v>247</v>
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -12787,14 +12825,14 @@
         <v>138</v>
       </c>
       <c r="B39" t="str">
-        <f>"8"</f>
-        <v>8</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>249</v>
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -12802,17 +12840,14 @@
         <v>138</v>
       </c>
       <c r="B40" t="str">
-        <f>"66"</f>
-        <v>66</v>
+        <f>"7"</f>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
-      </c>
-      <c r="E40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -12820,140 +12855,166 @@
         <v>138</v>
       </c>
       <c r="B41" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" t="str">
+        <f>"66"</f>
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
-      <c r="C41" t="s">
-        <v>206</v>
-      </c>
-      <c r="D41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="C43" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" t="str">
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
-      <c r="C44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>190</v>
-      </c>
-      <c r="B45" t="str">
+      <c r="C46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>50</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>225</v>
-      </c>
-      <c r="B47" t="str">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>225</v>
-      </c>
-      <c r="B48" t="str">
+      <c r="C49" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C48" t="s">
-        <v>231</v>
-      </c>
-      <c r="D48" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>225</v>
-      </c>
-      <c r="B49" t="str">
+      <c r="C50" t="s">
+        <v>229</v>
+      </c>
+      <c r="D50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="5"/>
+      <c r="C51" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D51" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="5"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
-      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
-      <c r="C56" s="7"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
-      <c r="C57" s="7"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
+      <c r="C58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
@@ -12961,7 +13022,6 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
-      <c r="C60" s="7"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
@@ -12980,9 +13040,11 @@
       <c r="C64" s="7"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B65" s="5"/>
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B66" s="5"/>
       <c r="C66" s="7"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
@@ -12992,50 +13054,50 @@
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B69" s="5"/>
       <c r="C69" s="7"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B70" s="5"/>
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B71" s="5"/>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B72" s="5"/>
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B73" s="5"/>
       <c r="C73" s="7"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B75" s="5"/>
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C76" s="7"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B77" s="5"/>
       <c r="C77" s="7"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C78" s="7"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B79" s="5"/>
       <c r="C79" s="7"/>
     </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C80" s="7"/>
+    </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B81" s="5"/>
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C82" s="7"/>
-    </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B83" s="5"/>
       <c r="C83" s="7"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.35">
@@ -13045,20 +13107,20 @@
       <c r="C85" s="7"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B86" s="5"/>
       <c r="C86" s="7"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C87" s="7"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B88" s="5"/>
       <c r="C88" s="7"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B91" s="5"/>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B92" s="5"/>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C89" s="7"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C90" s="7"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
@@ -13104,6 +13166,12 @@
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -13647,10 +13715,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -13661,7 +13729,7 @@
         <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -13669,7 +13737,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B43" t="s">
         <v>130</v>
@@ -13680,7 +13748,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
@@ -13691,7 +13759,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>96</v>

--- a/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
+++ b/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDBE13E-61B1-4BF1-9910-BA8F7DE4AE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6BB9931-CBD9-4C36-B271-EA655D1BB0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="296">
   <si>
     <t>setting_name</t>
   </si>
@@ -296,27 +296,15 @@
     <t>Prestação de serviços</t>
   </si>
   <si>
-    <t>Materiais:</t>
-  </si>
-  <si>
     <t xml:space="preserve">if </t>
   </si>
   <si>
-    <t>Which Materials</t>
-  </si>
-  <si>
     <t>Quais materiais?</t>
   </si>
   <si>
-    <t xml:space="preserve">Diagnósticos: </t>
-  </si>
-  <si>
     <t>Quais medicamentos?</t>
   </si>
   <si>
-    <t>Outros despesas?</t>
-  </si>
-  <si>
     <t>Transport</t>
   </si>
   <si>
@@ -326,21 +314,12 @@
     <t>Taxi</t>
   </si>
   <si>
-    <t>Carro</t>
-  </si>
-  <si>
     <t>Motocarro</t>
   </si>
   <si>
-    <t>Ambulancia</t>
-  </si>
-  <si>
     <t>select_one_with_other</t>
   </si>
   <si>
-    <t>Nao sabe</t>
-  </si>
-  <si>
     <t xml:space="preserve">A pé  </t>
   </si>
   <si>
@@ -380,9 +359,6 @@
     <t>OOP_A_TRAM</t>
   </si>
   <si>
-    <t>Did you seek ANC</t>
-  </si>
-  <si>
     <t>OOP_A_SERQ</t>
   </si>
   <si>
@@ -443,45 +419,18 @@
     <t>Materials</t>
   </si>
   <si>
-    <t>Which materials</t>
-  </si>
-  <si>
-    <t>Other materials</t>
-  </si>
-  <si>
     <t>Diagnostics</t>
   </si>
   <si>
-    <t>Which diagnostics</t>
-  </si>
-  <si>
-    <t>Other diagnostics</t>
-  </si>
-  <si>
-    <t>Medicine:</t>
-  </si>
-  <si>
     <t>Medicines</t>
   </si>
   <si>
-    <t>Which drugs</t>
-  </si>
-  <si>
-    <t>Other drugs</t>
-  </si>
-  <si>
     <t>Outros medicametos?</t>
   </si>
   <si>
-    <t>Which other expenses</t>
-  </si>
-  <si>
     <t>Quais outros despesas?</t>
   </si>
   <si>
-    <t xml:space="preserve">Quanto pagou pelo transporte de/para o estabelecimento de saúde (ida e volta)? </t>
-  </si>
-  <si>
     <t>Meio de transporte</t>
   </si>
   <si>
@@ -590,12 +539,6 @@
     <t>Quanto pagou pelos materiais?</t>
   </si>
   <si>
-    <t>Se não obtou cartao durante este gravidez, indicar 88, se não sabe o preco indicar 33</t>
-  </si>
-  <si>
-    <t>Você pagou a sua última consulta de cuidados pré-natais ?</t>
-  </si>
-  <si>
     <t>select_one_dropdown</t>
   </si>
   <si>
@@ -641,9 +584,6 @@
     <t>data("locparcodens")</t>
   </si>
   <si>
-    <t>Em que centro de saúde/clínica/hospital  {{data.NOMEMUL}}  procorou Ultima Consulta Prenatal?</t>
-  </si>
-  <si>
     <t>Quanto é que pagou pelo seguinte durante este gravidez:</t>
   </si>
   <si>
@@ -656,12 +596,6 @@
     <t>Outros materias?</t>
   </si>
   <si>
-    <t>Place of Consultation</t>
-  </si>
-  <si>
-    <t>Nemhuma</t>
-  </si>
-  <si>
     <t>Nemhuma destes</t>
   </si>
   <si>
@@ -680,9 +614,6 @@
     <t>Antibióticos</t>
   </si>
   <si>
-    <t>Você procorou alguma consulta de cuidados pré-natais?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quanto é que pagou pelos diagnósticos/exames/análises: </t>
   </si>
   <si>
@@ -701,9 +632,6 @@
     <t>Quanto é que pagou pelos outros despesas?</t>
   </si>
   <si>
-    <t>Em que centro de saúde/clínica/hospital  {{data.NOMEMUL}}  procorou a sua última consulta de cuidados pré-natais?</t>
-  </si>
-  <si>
     <t>Local de consulta</t>
   </si>
   <si>
@@ -719,42 +647,15 @@
     <t>Place</t>
   </si>
   <si>
-    <t>Onde Foi a Consulta CPN?</t>
-  </si>
-  <si>
-    <t>Onde Foi a Ultimo Consulta CPN?</t>
-  </si>
-  <si>
     <t>ANCPLACE</t>
   </si>
   <si>
-    <t>Health Facility</t>
-  </si>
-  <si>
-    <t>Estabelisimento Sanitaria</t>
-  </si>
-  <si>
     <t>Outreach in the village</t>
   </si>
   <si>
-    <t>Estrategia Avancada na Tabanca</t>
-  </si>
-  <si>
     <t>Outreach elsewhere</t>
   </si>
   <si>
-    <t>Você pagou à sua última consulta de cuidados pré-natais? (Prestacao de servico, materiais, diagnosticos, medicamentos)</t>
-  </si>
-  <si>
-    <t>Nao sabe destinguir</t>
-  </si>
-  <si>
-    <t>Estrategia Avancada num outro local fora da Tabanca</t>
-  </si>
-  <si>
-    <t>Carro de Transporte</t>
-  </si>
-  <si>
     <t>Desinfectant</t>
   </si>
   <si>
@@ -770,9 +671,6 @@
     <t>Desinfetantes</t>
   </si>
   <si>
-    <t>Sabao</t>
-  </si>
-  <si>
     <t>Feces test</t>
   </si>
   <si>
@@ -785,9 +683,6 @@
     <t>Paracetamol</t>
   </si>
   <si>
-    <t>Anti-fungal</t>
-  </si>
-  <si>
     <t>Anti-fungus</t>
   </si>
   <si>
@@ -815,45 +710,21 @@
     <t>data("OOP_A_TRAQ")!=null ||data("ANC")=="2"</t>
   </si>
   <si>
-    <t>Despesas de transporte de mulher gravida</t>
-  </si>
-  <si>
     <t>data("OOP_A_TRAM")!=null ||data("ANC")=="2" || data("OOP_A_TRAM")==77</t>
   </si>
   <si>
     <t>data("OOP_A_TRAM_OU")!=null ||data("ANC")=="2" || data("OOP_A_TRAM")==77</t>
   </si>
   <si>
-    <t>Dont know</t>
-  </si>
-  <si>
-    <t>TDR</t>
-  </si>
-  <si>
     <t>TDR (paludismo)</t>
   </si>
   <si>
     <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder</t>
   </si>
   <si>
-    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi usado nenhuma materiais</t>
-  </si>
-  <si>
-    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi feito nenhuma analises/exame</t>
-  </si>
-  <si>
-    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi receitada medicamentos</t>
-  </si>
-  <si>
-    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao tinha outros despesas</t>
-  </si>
-  <si>
     <t>Private car</t>
   </si>
   <si>
-    <t>Carro Particular</t>
-  </si>
-  <si>
     <t>data("ANCPLACE")!=null || data("ANC")!="1"</t>
   </si>
   <si>
@@ -869,19 +740,199 @@
     <t>data("OOP_A_OUTQ") &gt;0 &amp;&amp; data("OOP_A_OUTQ") !=88  &amp;&amp; data("OOP_A_OUTQ") !=77</t>
   </si>
   <si>
-    <t>Indicar: &lt;br&gt; 88 se não obtou cartao durante este gravidez, &lt;br&gt; 33 se não sabe o preco indicar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indique: &lt;br&gt; 88 se não obtou cartao durante est gravidez, &lt;br&gt; 77 se recusou-se a responder, &lt;br&gt; 33 se não sabe o preco </t>
-  </si>
-  <si>
-    <t>Indique: &lt;br&gt; 88 se não obtou cartao durante este gravidez, &lt;br&gt; 77 se recusou-se a responder, &lt;br&gt; 33 se não sabe o preco indicar</t>
-  </si>
-  <si>
     <t>data("ANC")!=null</t>
   </si>
   <si>
     <t>(data("LOCPARCODE") != null &amp;&amp; data("LOCPARCODE") != "8888") || (data("ANC") != "1" || data("LOCPAROU") != null)</t>
+  </si>
+  <si>
+    <t>Walked</t>
+  </si>
+  <si>
+    <t>Car (public transport)</t>
+  </si>
+  <si>
+    <t>Ambulance</t>
+  </si>
+  <si>
+    <t>Refused to answer</t>
+  </si>
+  <si>
+    <t>None of these</t>
+  </si>
+  <si>
+    <t>Carro de transporte</t>
+  </si>
+  <si>
+    <t>Carro particular</t>
+  </si>
+  <si>
+    <t>Ultrasound</t>
+  </si>
+  <si>
+    <t>TDR (Malaria rapid test)</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Antimalarials</t>
+  </si>
+  <si>
+    <t>Vitamins</t>
+  </si>
+  <si>
+    <t>Tetanus vaccine</t>
+  </si>
+  <si>
+    <t>Anti-fungals</t>
+  </si>
+  <si>
+    <t>Can't distinguish</t>
+  </si>
+  <si>
+    <t>Health facility</t>
+  </si>
+  <si>
+    <t>Sabão</t>
+  </si>
+  <si>
+    <t>Não sabe distinguir</t>
+  </si>
+  <si>
+    <t>Estrategia avançada na Tabanca</t>
+  </si>
+  <si>
+    <t>Estrategia avançada num outro local fora da Tabanca</t>
+  </si>
+  <si>
+    <t>Estabelisimento  sanitária</t>
+  </si>
+  <si>
+    <t>Did you seek any ANC consultation?</t>
+  </si>
+  <si>
+    <t>Did you pay for your last ANC visit (including service provision, materials, diagnostics, medicine)?</t>
+  </si>
+  <si>
+    <t>How much did you pay for the following:</t>
+  </si>
+  <si>
+    <t>Service provision</t>
+  </si>
+  <si>
+    <t>Which materials?</t>
+  </si>
+  <si>
+    <t>Other materials?</t>
+  </si>
+  <si>
+    <t>How much did you pay for diagnostics:</t>
+  </si>
+  <si>
+    <t>Which diagnostics?</t>
+  </si>
+  <si>
+    <t>Other diagnostics?</t>
+  </si>
+  <si>
+    <t>How much did you pay for medicines?</t>
+  </si>
+  <si>
+    <t>Which medicines?</t>
+  </si>
+  <si>
+    <t>Other medicines?</t>
+  </si>
+  <si>
+    <t>How much did you pay for other expenses?</t>
+  </si>
+  <si>
+    <t>Which other expenses?</t>
+  </si>
+  <si>
+    <t>In which health facility did {{data.NOMEMUL}}  have her last ANC visit?</t>
+  </si>
+  <si>
+    <t>Where was the last ANC visit?</t>
+  </si>
+  <si>
+    <t>Place of consultation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much did you pay for transport to/from the health facility (round trip)? </t>
+  </si>
+  <si>
+    <t>Means of transport</t>
+  </si>
+  <si>
+    <t>How much did you pay for the following furing this pregnancy:</t>
+  </si>
+  <si>
+    <t>Pregnancy card (the big pink one)?</t>
+  </si>
+  <si>
+    <t>Tetanus vaccine card (the small pink one)?</t>
+  </si>
+  <si>
+    <t>Você procurou alguma consulta de cuidados pré-natais?</t>
+  </si>
+  <si>
+    <t>Você pagou à sua última consulta de cuidados pré-natais? (Prestação de serviço, matériais, diagnósticos, medicamentos)</t>
+  </si>
+  <si>
+    <t>How much did you pay for materials?</t>
+  </si>
+  <si>
+    <t>Em que centro de saúde/clínica/hospital  {{data.NOMEMUL}}  procurou a sua última consulta de cuidados pré-natais?</t>
+  </si>
+  <si>
+    <t>Onde foi a última consulta CPN?</t>
+  </si>
+  <si>
+    <t>Transportation costs of the pregnant woman</t>
+  </si>
+  <si>
+    <t>Despesas de transporte de mulher grávida</t>
+  </si>
+  <si>
+    <t>Indicate: &lt;br&gt; 33 if don't know; &lt;br&gt; 77 if refused to answer</t>
+  </si>
+  <si>
+    <t>Indicate: &lt;br&gt; 33 if don't know; &lt;br&gt; 77 if refused to answer; &lt;br&gt; 88 if no materials have been used</t>
+  </si>
+  <si>
+    <t>Indicate: &lt;br&gt; 33 if don't know; &lt;br&gt; 77 if refused to answer; &lt;br&gt; 88 if no diagnostics performed</t>
+  </si>
+  <si>
+    <t>Indicate: &lt;br&gt; 33 if don't know; &lt;br&gt; 77 if refused to answer; &lt;br&gt; 88 if no medicines prescribed/provided</t>
+  </si>
+  <si>
+    <t>Indicate: &lt;br&gt; 33 if don't know; &lt;br&gt; 77 if refused to answer; &lt;br&gt; 88 if no further payments</t>
+  </si>
+  <si>
+    <t>Indicate: &lt;br&gt; 88 if she didn't receive a pregnancy card; &lt;br&gt; 77 if refused to answer; &lt;br&gt; 33 if she does not remember the price</t>
+  </si>
+  <si>
+    <t>Indicate: &lt;br&gt; 88 if she didn't receive a tetanus vacine card; &lt;br&gt; 77 if refused to answer; &lt;br&gt; 33 if she does not remember the price</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se não foram usadas nenhumas materiais</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se não foram feitos nenhums diagnósticos/exames/análises</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se não foi receitada medicamentos</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se não tinha outros despesas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indique: &lt;br&gt; 88 se não obtou cartão durante esta gravidez, &lt;br&gt; 77 se recusou-se a responder, &lt;br&gt; 33 se não sabe o preço </t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 88 se não obtou cartão durante esta gravidez, &lt;br&gt; 77 se recusou-se a responder, &lt;br&gt; 33 se não sabe o preço</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1134,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1411,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1427,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1435,10 +1486,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1468,7 +1519,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1484,9 +1535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:XFD145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
+    <sheetView zoomScale="71" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1620,17 +1671,17 @@
         <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="24" t="s">
-        <v>277</v>
+      <c r="K3" t="s">
+        <v>231</v>
       </c>
       <c r="L3"/>
       <c r="N3"/>
@@ -9863,7 +9914,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -9942,18 +9993,18 @@
         <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -9984,7 +10035,7 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -10064,7 +10115,7 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
@@ -10104,10 +10155,10 @@
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -10115,11 +10166,13 @@
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" t="s">
-        <v>164</v>
-      </c>
-      <c r="L11"/>
+        <v>147</v>
+      </c>
+      <c r="L11" t="s">
+        <v>283</v>
+      </c>
       <c r="M11" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -10151,22 +10204,24 @@
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>278</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>165</v>
-      </c>
-      <c r="L12"/>
+        <v>148</v>
+      </c>
+      <c r="L12" t="s">
+        <v>284</v>
+      </c>
       <c r="M12" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -10192,10 +10247,10 @@
     <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -10233,24 +10288,24 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" t="s">
         <v>131</v>
       </c>
-      <c r="F14" t="s">
-        <v>148</v>
-      </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
@@ -10286,18 +10341,18 @@
         <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="H15" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
@@ -10325,10 +10380,10 @@
     <row r="16" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -10405,18 +10460,18 @@
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -10598,22 +10653,24 @@
       </c>
       <c r="E23" s="14"/>
       <c r="F23" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>260</v>
       </c>
       <c r="H23" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" t="s">
-        <v>264</v>
+        <v>149</v>
+      </c>
+      <c r="L23" t="s">
+        <v>285</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>291</v>
       </c>
       <c r="N23"/>
       <c r="O23"/>
@@ -10639,10 +10696,10 @@
     <row r="24" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21"/>
       <c r="B24" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -10680,24 +10737,24 @@
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25"/>
@@ -10733,18 +10790,18 @@
         <v>47</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26"/>
@@ -10772,10 +10829,10 @@
     <row r="27" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21"/>
       <c r="B27" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -10852,18 +10909,18 @@
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29"/>
@@ -11045,22 +11102,24 @@
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="L34" s="16"/>
+        <v>150</v>
+      </c>
+      <c r="L34" t="s">
+        <v>286</v>
+      </c>
       <c r="M34" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -11086,10 +11145,10 @@
     <row r="35" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
       <c r="B35" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -11127,24 +11186,24 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="L36" s="16"/>
       <c r="M36"/>
@@ -11180,18 +11239,18 @@
         <v>47</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>140</v>
+        <v>265</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="L37" s="16"/>
       <c r="M37"/>
@@ -11219,10 +11278,10 @@
     <row r="38" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
       <c r="B38" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -11299,18 +11358,18 @@
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="16" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="L40" s="16"/>
       <c r="M40"/>
@@ -11527,22 +11586,24 @@
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>89</v>
+        <v>266</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
       <c r="K46" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="L46" s="19"/>
+        <v>151</v>
+      </c>
+      <c r="L46" t="s">
+        <v>287</v>
+      </c>
       <c r="M46" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="N46" s="19"/>
       <c r="O46" s="19"/>
@@ -11568,10 +11629,10 @@
     <row r="47" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15"/>
       <c r="B47" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -11613,18 +11674,18 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>142</v>
+        <v>267</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
       <c r="K48" s="19" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
@@ -11735,7 +11796,7 @@
         <v>55</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -11750,10 +11811,10 @@
         <v>35</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="S54" s="17" t="b">
         <v>1</v>
@@ -11762,76 +11823,76 @@
     <row r="55" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55"/>
       <c r="D55" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="F55" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="K55" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56"/>
       <c r="D56" s="17" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>71</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57"/>
       <c r="D57" s="17" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>72</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="T57" s="18" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58"/>
       <c r="D58" s="17" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="S58" s="17" t="b">
         <v>1</v>
@@ -11843,7 +11904,7 @@
         <v>55</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -11852,7 +11913,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -11861,16 +11922,16 @@
         <v>54</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -11882,13 +11943,13 @@
     <row r="63" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63"/>
       <c r="D63" s="17" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="S63" s="17" t="b">
         <v>1</v>
@@ -11916,10 +11977,10 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="H68" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
@@ -11927,53 +11988,56 @@
         <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G69" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="H69" t="s">
+        <v>196</v>
+      </c>
+      <c r="K69" t="s">
         <v>220</v>
       </c>
-      <c r="K69" t="s">
-        <v>255</v>
+      <c r="L69" t="s">
+        <v>283</v>
       </c>
       <c r="M69" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D70" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E70" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F70" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G70" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="H70" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="K70" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D71" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E71" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="F71" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K71" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.35">
@@ -11996,10 +12060,10 @@
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75" t="s">
-        <v>199</v>
+        <v>273</v>
       </c>
       <c r="H75" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="I75"/>
       <c r="J75"/>
@@ -12071,24 +12135,24 @@
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G77" t="s">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="H77" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L77" t="s">
-        <v>181</v>
-      </c>
-      <c r="M77" t="s">
-        <v>275</v>
+        <v>288</v>
+      </c>
+      <c r="M77" s="24" t="s">
+        <v>294</v>
       </c>
       <c r="N77"/>
       <c r="O77"/>
@@ -12116,22 +12180,22 @@
         <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G78" t="s">
-        <v>123</v>
+        <v>275</v>
       </c>
       <c r="H78" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K78" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L78" t="s">
-        <v>274</v>
-      </c>
-      <c r="M78" t="s">
-        <v>276</v>
+        <v>289</v>
+      </c>
+      <c r="M78" s="24" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -12170,13 +12234,13 @@
         <v>54</v>
       </c>
       <c r="F82" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="G82" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="H82" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.35">
@@ -12323,9 +12387,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12397,119 +12461,119 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B9" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B10" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B11" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B12" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
@@ -12517,119 +12581,119 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B14" t="str">
         <f>"66"</f>
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B15" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B18" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B19" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B20" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B21" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B22" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
@@ -12637,104 +12701,104 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B23" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="D23" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B26" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B27" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B28" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B29" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="D29" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B30" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B31" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
         <v>53</v>
@@ -12742,17 +12806,17 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B32" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="D32" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -12762,97 +12826,97 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B35" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B36" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B37" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B38" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B39" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B40" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="D40" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B41" t="str">
         <f>"8"</f>
@@ -12862,40 +12926,40 @@
         <v>246</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B42" t="str">
         <f>"66"</f>
         <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="E42" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B43" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="D43" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -12910,22 +12974,22 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B46" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D46" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B47" t="str">
         <f>"9999"</f>
@@ -12945,47 +13009,47 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="B49" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="B50" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="D50" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="B51" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -13395,7 +13459,7 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -13406,7 +13470,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -13417,7 +13481,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -13428,7 +13492,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -13439,7 +13503,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -13450,10 +13514,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -13461,7 +13525,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -13472,7 +13536,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
@@ -13483,7 +13547,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -13494,10 +13558,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -13505,7 +13569,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -13516,7 +13580,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -13527,7 +13591,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -13538,10 +13602,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -13549,7 +13613,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -13560,7 +13624,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -13571,7 +13635,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -13582,10 +13646,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -13593,7 +13657,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -13604,7 +13668,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -13615,7 +13679,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -13626,10 +13690,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -13637,10 +13701,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -13648,7 +13712,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>54</v>
@@ -13659,7 +13723,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -13670,7 +13734,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>
@@ -13681,7 +13745,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
         <v>46</v>
@@ -13692,7 +13756,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
@@ -13703,7 +13767,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -13715,10 +13779,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -13726,10 +13790,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -13737,10 +13801,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -13748,7 +13812,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
@@ -13759,10 +13823,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>

--- a/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
+++ b/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6BB9931-CBD9-4C36-B271-EA655D1BB0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DF3055-5127-4677-9492-F750B21FB4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="296">
   <si>
     <t>setting_name</t>
   </si>
@@ -350,9 +350,6 @@
     <t xml:space="preserve">data("ANC") == "1" </t>
   </si>
   <si>
-    <t>LOCPAR_FORA</t>
-  </si>
-  <si>
     <t>OOP_A_TRAQ</t>
   </si>
   <si>
@@ -476,9 +473,6 @@
     <t>data("OOP_A_MEDT") != null || data("OOP_A_MEDT_OU") != "1"</t>
   </si>
   <si>
-    <t>OOP_A_OUTT_SEL</t>
-  </si>
-  <si>
     <t>OOP_A_OUTT_OU</t>
   </si>
   <si>
@@ -933,6 +927,12 @@
   </si>
   <si>
     <t>Indique: &lt;br&gt; 88 se não obtou cartão durante esta gravidez, &lt;br&gt; 77 se recusou-se a responder, &lt;br&gt; 33 se não sabe o preço</t>
+  </si>
+  <si>
+    <t>OOP_A_OUTT_SEL; select_multiple; removed</t>
+  </si>
+  <si>
+    <t>LOCPAR_FORA, select_one, removed</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1103,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1134,7 +1134,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1462,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1478,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1486,10 +1485,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1535,9 +1534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:XFD145"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1674,14 +1673,14 @@
         <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L3"/>
       <c r="N3"/>
@@ -9996,15 +9995,15 @@
         <v>96</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -10115,7 +10114,7 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
@@ -10155,10 +10154,10 @@
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -10166,13 +10165,13 @@
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -10204,24 +10203,24 @@
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -10250,7 +10249,7 @@
         <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -10288,16 +10287,16 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="s">
         <v>122</v>
       </c>
-      <c r="E14" t="s">
-        <v>123</v>
-      </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H14" t="s">
         <v>84</v>
@@ -10305,7 +10304,7 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
@@ -10341,18 +10340,18 @@
         <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
@@ -10383,7 +10382,7 @@
         <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -10460,10 +10459,10 @@
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H18" t="s">
         <v>84</v>
@@ -10471,7 +10470,7 @@
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -10653,24 +10652,24 @@
       </c>
       <c r="E23" s="14"/>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s">
-        <v>285</v>
-      </c>
-      <c r="M23" s="24" t="s">
-        <v>291</v>
+        <v>283</v>
+      </c>
+      <c r="M23" t="s">
+        <v>289</v>
       </c>
       <c r="N23"/>
       <c r="O23"/>
@@ -10699,7 +10698,7 @@
         <v>83</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -10737,24 +10736,24 @@
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25"/>
@@ -10790,18 +10789,18 @@
         <v>47</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26"/>
@@ -10832,7 +10831,7 @@
         <v>83</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -10909,18 +10908,18 @@
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29"/>
@@ -11102,24 +11101,24 @@
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -11148,7 +11147,7 @@
         <v>83</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -11186,16 +11185,16 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>85</v>
@@ -11203,7 +11202,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L36" s="16"/>
       <c r="M36"/>
@@ -11239,18 +11238,18 @@
         <v>47</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L37" s="16"/>
       <c r="M37"/>
@@ -11281,7 +11280,7 @@
         <v>83</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -11358,10 +11357,10 @@
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H40" s="16" t="s">
         <v>85</v>
@@ -11369,7 +11368,7 @@
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L40" s="16"/>
       <c r="M40"/>
@@ -11586,24 +11585,24 @@
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
       <c r="K46" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M46" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N46" s="19"/>
       <c r="O46" s="19"/>
@@ -11632,7 +11631,7 @@
         <v>83</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -11674,18 +11673,18 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
       <c r="K48" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
@@ -11811,10 +11810,10 @@
         <v>35</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S54" s="17" t="b">
         <v>1</v>
@@ -11826,43 +11825,43 @@
         <v>90</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56"/>
       <c r="D56" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>71</v>
       </c>
       <c r="F56" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H56" s="17" t="s">
         <v>165</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57"/>
       <c r="D57" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>72</v>
@@ -11871,28 +11870,28 @@
         <v>98</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="T57" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58"/>
       <c r="D58" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S58" s="17" t="b">
         <v>1</v>
@@ -11904,7 +11903,7 @@
         <v>55</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -11913,7 +11912,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -11922,16 +11921,16 @@
         <v>54</v>
       </c>
       <c r="F61" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H61" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G61" s="17" t="s">
+      <c r="K61" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="K61" s="17" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -11943,13 +11942,13 @@
     <row r="63" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63"/>
       <c r="D63" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>98</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S63" s="17" t="b">
         <v>1</v>
@@ -11977,10 +11976,10 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H68" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
@@ -11988,42 +11987,42 @@
         <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G69" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L69" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M69" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E70" t="s">
         <v>86</v>
       </c>
       <c r="F70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G70" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.35">
@@ -12031,13 +12030,13 @@
         <v>90</v>
       </c>
       <c r="E71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K71" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.35">
@@ -12060,10 +12059,10 @@
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H75" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I75"/>
       <c r="J75"/>
@@ -12135,24 +12134,24 @@
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G77" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L77" t="s">
-        <v>288</v>
-      </c>
-      <c r="M77" s="24" t="s">
-        <v>294</v>
+        <v>286</v>
+      </c>
+      <c r="M77" t="s">
+        <v>292</v>
       </c>
       <c r="N77"/>
       <c r="O77"/>
@@ -12180,22 +12179,22 @@
         <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G78" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L78" t="s">
-        <v>289</v>
-      </c>
-      <c r="M78" s="24" t="s">
-        <v>295</v>
+        <v>287</v>
+      </c>
+      <c r="M78" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -12234,13 +12233,13 @@
         <v>54</v>
       </c>
       <c r="F82" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H82" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.35">
@@ -12387,9 +12386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12468,7 +12467,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
         <v>91</v>
@@ -12498,10 +12497,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -12543,10 +12542,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -12558,10 +12557,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -12588,7 +12587,7 @@
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D14" t="s">
         <v>92</v>
@@ -12603,90 +12602,90 @@
         <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" t="str">
         <f>"33"</f>
@@ -12701,97 +12700,97 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" t="str">
         <f>"33"</f>
@@ -12806,17 +12805,17 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -12826,140 +12825,140 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B37" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B38" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42" t="str">
         <f>"66"</f>
         <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B43" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -12974,22 +12973,22 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B46" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B47" t="str">
         <f>"9999"</f>
@@ -13009,47 +13008,47 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B49" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D49" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B50" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D50" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B51" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -13431,8 +13430,8 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13481,7 +13480,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -13492,7 +13491,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -13503,7 +13502,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -13514,10 +13513,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -13525,7 +13524,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -13536,7 +13535,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
@@ -13547,7 +13546,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -13558,10 +13557,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -13569,7 +13568,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -13580,7 +13579,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -13589,9 +13588,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -13600,20 +13599,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -13622,9 +13621,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -13633,9 +13632,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -13644,20 +13643,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -13666,9 +13659,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -13677,9 +13670,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -13688,20 +13681,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>90</v>
@@ -13710,7 +13703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -13721,7 +13714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -13744,19 +13737,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" t="b">
-        <v>0</v>
+      <c r="D34" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
@@ -13767,7 +13754,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -13779,10 +13766,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -13793,7 +13780,7 @@
         <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -13801,10 +13788,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -13812,7 +13799,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
@@ -13823,7 +13810,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>90</v>

--- a/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
+++ b/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078E1B59-5203-49A6-A95C-38E185BCA28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9409BDE3-F2FC-456B-B139-10463D27155F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="300">
   <si>
     <t>setting_name</t>
   </si>
@@ -942,6 +942,9 @@
   </si>
   <si>
     <t>Você pagou à sua última consulta de cuidados pré-natais? &lt;br&gt; (&lt;span style="color: red;"&gt; Prestação de serviço, matériais, diagnósticos, medicamentos &lt;/span&gt; )</t>
+  </si>
+  <si>
+    <t>data("ANC")!="1" || (data("ANC_NO") &gt;= 0 &amp;&amp; data("ANC")=="1")</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1551,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9898,7 +9901,9 @@
         <v>297</v>
       </c>
       <c r="J4"/>
-      <c r="K4"/>
+      <c r="K4" t="s">
+        <v>299</v>
+      </c>
       <c r="L4" t="s">
         <v>280</v>
       </c>

--- a/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
+++ b/app/config/tables/MIF_V_OOP_ANC/forms/MIF_V_OOP_ANC/MIF_V_OOP_ANC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9409BDE3-F2FC-456B-B139-10463D27155F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28AAFFC-B8B7-441B-A4A3-2E1CAC8AF84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4920" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -1547,11 +1547,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:XFD146"/>
+  <dimension ref="A1:XFD148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20450,129 +20450,144 @@
       <c r="AF81"/>
       <c r="AG81"/>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B82" t="s">
+    <row r="82" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82"/>
+      <c r="B82" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+      <c r="AE82"/>
+      <c r="AF82"/>
+      <c r="AG82"/>
+    </row>
+    <row r="83" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83"/>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+      <c r="AG83"/>
+    </row>
+    <row r="84" spans="1:33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="D83" t="s">
+    <row r="85" spans="1:33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D85" t="s">
         <v>54</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F85" t="s">
         <v>144</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G85" t="s">
         <v>129</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H85" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B84" t="s">
+    <row r="86" spans="1:33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85"/>
-      <c r="B85" t="s">
-        <v>56</v>
-      </c>
-      <c r="N85"/>
-      <c r="O85"/>
-      <c r="P85"/>
-      <c r="Q85"/>
-      <c r="R85"/>
-      <c r="S85"/>
-      <c r="T85"/>
-      <c r="U85"/>
-      <c r="V85"/>
-      <c r="W85"/>
-      <c r="X85"/>
-      <c r="Y85"/>
-      <c r="Z85"/>
-      <c r="AA85"/>
-      <c r="AB85"/>
-      <c r="AC85"/>
-      <c r="AD85"/>
-      <c r="AE85"/>
-      <c r="AF85"/>
-      <c r="AG85"/>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B86" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="15"/>
-      <c r="T86" s="15"/>
-      <c r="U86" s="15"/>
-      <c r="V86" s="15"/>
-      <c r="W86" s="15"/>
-      <c r="X86" s="15"/>
-      <c r="Y86" s="15"/>
-      <c r="Z86" s="15"/>
-      <c r="AA86" s="15"/>
-      <c r="AB86" s="15"/>
-      <c r="AC86" s="15"/>
-      <c r="AD86" s="15"/>
-      <c r="AE86" s="15"/>
-      <c r="AF86" s="15"/>
-      <c r="AG86" s="15"/>
-    </row>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3"/>
-      <c r="L143" s="3"/>
-      <c r="M143" s="3"/>
-      <c r="N143" s="3"/>
-      <c r="O143" s="3"/>
-      <c r="P143" s="3"/>
-      <c r="Q143" s="3"/>
-      <c r="R143" s="11"/>
-      <c r="S143" s="3"/>
-      <c r="T143" s="3"/>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
-      <c r="L144" s="3"/>
-      <c r="M144" s="3"/>
-      <c r="N144" s="3"/>
-      <c r="O144" s="3"/>
-      <c r="P144" s="3"/>
-      <c r="Q144" s="3"/>
-      <c r="R144" s="11"/>
-      <c r="S144" s="3"/>
-      <c r="T144" s="3"/>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+      <c r="AE87"/>
+      <c r="AF87"/>
+      <c r="AG87"/>
+    </row>
+    <row r="88" spans="1:33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
+      <c r="S88" s="15"/>
+      <c r="T88" s="15"/>
+      <c r="U88" s="15"/>
+      <c r="V88" s="15"/>
+      <c r="W88" s="15"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="15"/>
+      <c r="AA88" s="15"/>
+      <c r="AB88" s="15"/>
+      <c r="AC88" s="15"/>
+      <c r="AD88" s="15"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="15"/>
+    </row>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" spans="1:20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
@@ -20585,12 +20600,9 @@
       <c r="S145" s="3"/>
       <c r="T145" s="3"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3"/>
       <c r="C146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
@@ -20602,6 +20614,42 @@
       <c r="R146" s="11"/>
       <c r="S146" s="3"/>
       <c r="T146" s="3"/>
+    </row>
+    <row r="147" spans="1:20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
+      <c r="Q147" s="3"/>
+      <c r="R147" s="11"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3"/>
+    </row>
+    <row r="148" spans="1:20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="11"/>
+      <c r="S148" s="3"/>
+      <c r="T148" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
